--- a/data/The Good Health.xlsx
+++ b/data/The Good Health.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Desktop\ViewFinders\data_visualizer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Desktop\ViewFinders\Visualizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6EE7E3-559A-48AE-84DF-F329F0051E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC8AB26-76B1-4762-8707-32E3584E90AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="FacebookAge" sheetId="4" r:id="rId4"/>
     <sheet name="InstagramAge" sheetId="5" r:id="rId5"/>
     <sheet name="Facebook_Geography" sheetId="6" r:id="rId6"/>
-    <sheet name="Insta_Geography" sheetId="7" r:id="rId7"/>
+    <sheet name="Instagram_Geography" sheetId="7" r:id="rId7"/>
     <sheet name="Audio" sheetId="8" r:id="rId8"/>
     <sheet name="Audio_play" sheetId="9" r:id="rId9"/>
     <sheet name="Audio_Geography" sheetId="10" r:id="rId10"/>
@@ -3030,7 +3030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -12110,8 +12110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/The Good Health.xlsx
+++ b/data/The Good Health.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Desktop\ViewFinders\Visualizer\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Psych0delic_Boi\Desktop\datavisu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC8AB26-76B1-4762-8707-32E3584E90AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="750" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
@@ -19,24 +18,12 @@
     <sheet name="FacebookAge" sheetId="4" r:id="rId4"/>
     <sheet name="InstagramAge" sheetId="5" r:id="rId5"/>
     <sheet name="Facebook_Geography" sheetId="6" r:id="rId6"/>
-    <sheet name="Instagram_Geography" sheetId="7" r:id="rId7"/>
+    <sheet name="Insta_Geography" sheetId="7" r:id="rId7"/>
     <sheet name="Audio" sheetId="8" r:id="rId8"/>
     <sheet name="Audio_play" sheetId="9" r:id="rId9"/>
     <sheet name="Audio_Geography" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2365,9 +2352,6 @@
     <t>Sydney, NSW, Australia</t>
   </si>
   <si>
-    <t>Plays</t>
-  </si>
-  <si>
     <t>6/19/2020, 12:00:00</t>
   </si>
   <si>
@@ -2527,13 +2511,16 @@
     <t>France</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>allEpisodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2658,23 +2645,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2710,23 +2680,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2902,16 +2855,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +2875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2933,7 +2886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +2897,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2955,7 +2908,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2966,7 +2919,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -2977,7 +2930,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2988,7 +2941,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2999,7 +2952,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3010,7 +2963,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3027,367 +2980,257 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+      <c r="B1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>753</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <f>B2*100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>764</v>
       </c>
       <c r="B3">
         <v>0.11</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C30" si="0">B3*100</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>771</v>
       </c>
       <c r="B4">
         <v>0.09</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>765</v>
       </c>
       <c r="B5">
         <v>0.06</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>768</v>
       </c>
       <c r="B6">
         <v>0.05</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>767</v>
       </c>
       <c r="B7">
         <v>0.04</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>766</v>
       </c>
       <c r="B8">
         <v>0.03</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B9">
         <v>0.03</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B10">
         <v>0.03</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B11">
         <v>0.02</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B12">
         <v>0.02</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B13">
         <v>4.8951048951048903E-3</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>0.48951048951048903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B14">
         <v>4.1958041958041897E-3</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.41958041958041897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B15">
         <v>4.1958041958041897E-3</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>0.41958041958041897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B16">
         <v>2.0979020979020901E-3</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>0.20979020979020901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B17">
         <v>1.3986013986013899E-3</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>0.13986013986013898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B18">
         <v>1.3986013986013899E-3</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.13986013986013898</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B19">
         <v>1.3986013986013899E-3</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>0.13986013986013898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B20">
         <v>1.3986013986013899E-3</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>0.13986013986013898</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>769</v>
       </c>
       <c r="B21">
         <v>1.3986013986013899E-3</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>0.13986013986013898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B22">
         <v>6.9930069930069897E-4</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>6.9930069930069894E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B23">
         <v>6.9930069930069897E-4</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>6.9930069930069894E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B24">
         <v>6.9930069930069897E-4</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>6.9930069930069894E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B25">
         <v>6.9930069930069897E-4</v>
       </c>
-      <c r="C25">
-        <f>B25*100</f>
-        <v>6.9930069930069894E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B26">
         <v>6.9930069930069897E-4</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>6.9930069930069894E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B27">
         <v>6.9930069930069897E-4</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>6.9930069930069894E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B28">
         <v>6.9930069930069897E-4</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>6.9930069930069894E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B29">
         <v>6.9930069930069897E-4</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>6.9930069930069894E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B30">
         <v>6.9930069930069897E-4</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>6.9930069930069894E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3396,21 +3239,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3427,7 +3270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3444,7 +3287,7 @@
         <v>13.21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3461,7 +3304,7 @@
         <v>15.02</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3478,7 +3321,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3495,7 +3338,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3512,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3529,7 +3372,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3546,7 +3389,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3563,7 +3406,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3580,7 +3423,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3597,7 +3440,7 @@
         <v>23.23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3614,7 +3457,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3631,7 +3474,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3648,7 +3491,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3665,7 +3508,7 @@
         <v>32.74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3688,19 +3531,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -3711,7 +3554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3722,7 +3565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3733,7 +3576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3744,7 +3587,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3755,7 +3598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3766,7 +3609,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3777,7 +3620,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3788,7 +3631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -3799,7 +3642,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -3810,7 +3653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3821,7 +3664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3832,7 +3675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3843,7 +3686,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -3854,7 +3697,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3865,7 +3708,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3876,7 +3719,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3887,7 +3730,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3898,7 +3741,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -3909,7 +3752,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -3920,7 +3763,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -3931,7 +3774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3942,7 +3785,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -3953,7 +3796,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -3964,7 +3807,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3975,7 +3818,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -3986,7 +3829,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -3997,7 +3840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -4008,7 +3851,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -4019,7 +3862,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -4030,7 +3873,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -4041,7 +3884,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4052,7 +3895,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -4063,7 +3906,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4074,7 +3917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -4085,7 +3928,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -4096,7 +3939,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -4107,7 +3950,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -4118,7 +3961,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -4129,7 +3972,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -4140,7 +3983,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -4151,7 +3994,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -4162,7 +4005,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -4173,7 +4016,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -4184,7 +4027,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -4195,7 +4038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4206,7 +4049,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -4217,7 +4060,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -4228,7 +4071,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -4239,7 +4082,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -4250,7 +4093,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -4261,7 +4104,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -4272,7 +4115,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -4283,7 +4126,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -4294,7 +4137,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -4305,7 +4148,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -4316,7 +4159,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -4327,7 +4170,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -4338,7 +4181,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4349,7 +4192,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -4360,7 +4203,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -4371,7 +4214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -4382,7 +4225,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -4393,7 +4236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -4404,7 +4247,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -4415,7 +4258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -4426,7 +4269,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -4437,7 +4280,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -4448,7 +4291,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -4459,7 +4302,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -4470,7 +4313,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -4481,7 +4324,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -4492,7 +4335,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -4503,7 +4346,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -4514,7 +4357,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -4525,7 +4368,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -4536,7 +4379,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -4547,7 +4390,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -4558,7 +4401,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -4569,7 +4412,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -4580,7 +4423,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -4591,7 +4434,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -4602,7 +4445,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -4613,7 +4456,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -4624,7 +4467,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -4635,7 +4478,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -4646,7 +4489,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -4657,7 +4500,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -4668,7 +4511,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -4679,7 +4522,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -4690,7 +4533,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -4701,7 +4544,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -4712,7 +4555,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -4723,7 +4566,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -4734,7 +4577,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -4745,7 +4588,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -4756,7 +4599,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -4767,7 +4610,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -4778,7 +4621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -4789,7 +4632,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -4800,7 +4643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -4811,7 +4654,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -4822,7 +4665,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -4833,7 +4676,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -4844,7 +4687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -4855,7 +4698,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -4866,7 +4709,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -4877,7 +4720,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>137</v>
       </c>
@@ -4888,7 +4731,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -4899,7 +4742,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>139</v>
       </c>
@@ -4910,7 +4753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -4921,7 +4764,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -4932,7 +4775,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>142</v>
       </c>
@@ -4943,7 +4786,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>143</v>
       </c>
@@ -4954,7 +4797,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>144</v>
       </c>
@@ -4965,7 +4808,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -4976,7 +4819,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>146</v>
       </c>
@@ -4987,7 +4830,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -4998,7 +4841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>148</v>
       </c>
@@ -5009,7 +4852,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -5020,7 +4863,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>150</v>
       </c>
@@ -5031,7 +4874,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>151</v>
       </c>
@@ -5042,7 +4885,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -5053,7 +4896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>153</v>
       </c>
@@ -5064,7 +4907,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>154</v>
       </c>
@@ -5075,7 +4918,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -5086,7 +4929,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>156</v>
       </c>
@@ -5097,7 +4940,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>157</v>
       </c>
@@ -5108,7 +4951,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>158</v>
       </c>
@@ -5119,7 +4962,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>159</v>
       </c>
@@ -5130,7 +4973,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -5141,7 +4984,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>161</v>
       </c>
@@ -5152,7 +4995,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>162</v>
       </c>
@@ -5163,7 +5006,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>163</v>
       </c>
@@ -5174,7 +5017,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>164</v>
       </c>
@@ -5185,7 +5028,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -5196,7 +5039,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>166</v>
       </c>
@@ -5207,7 +5050,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -5218,7 +5061,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -5229,7 +5072,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>169</v>
       </c>
@@ -5240,7 +5083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>170</v>
       </c>
@@ -5251,7 +5094,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>171</v>
       </c>
@@ -5262,7 +5105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>172</v>
       </c>
@@ -5273,7 +5116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>173</v>
       </c>
@@ -5284,7 +5127,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>174</v>
       </c>
@@ -5295,7 +5138,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>175</v>
       </c>
@@ -5306,7 +5149,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>176</v>
       </c>
@@ -5317,7 +5160,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>177</v>
       </c>
@@ -5328,7 +5171,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>178</v>
       </c>
@@ -5339,7 +5182,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>179</v>
       </c>
@@ -5350,7 +5193,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>180</v>
       </c>
@@ -5361,7 +5204,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>181</v>
       </c>
@@ -5372,7 +5215,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>182</v>
       </c>
@@ -5383,7 +5226,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -5394,7 +5237,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>184</v>
       </c>
@@ -5405,7 +5248,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>185</v>
       </c>
@@ -5416,7 +5259,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>186</v>
       </c>
@@ -5427,7 +5270,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -5438,7 +5281,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -5449,7 +5292,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -5460,7 +5303,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>190</v>
       </c>
@@ -5471,7 +5314,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>191</v>
       </c>
@@ -5482,7 +5325,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>192</v>
       </c>
@@ -5493,7 +5336,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>193</v>
       </c>
@@ -5504,7 +5347,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -5515,7 +5358,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>195</v>
       </c>
@@ -5526,7 +5369,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>196</v>
       </c>
@@ -5537,7 +5380,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>197</v>
       </c>
@@ -5548,7 +5391,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>198</v>
       </c>
@@ -5559,7 +5402,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>199</v>
       </c>
@@ -5570,7 +5413,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>200</v>
       </c>
@@ -5581,7 +5424,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>201</v>
       </c>
@@ -5592,7 +5435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>202</v>
       </c>
@@ -5603,7 +5446,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>203</v>
       </c>
@@ -5614,7 +5457,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>204</v>
       </c>
@@ -5625,7 +5468,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>205</v>
       </c>
@@ -5636,7 +5479,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -5647,7 +5490,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -5658,7 +5501,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>208</v>
       </c>
@@ -5669,7 +5512,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -5680,7 +5523,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>210</v>
       </c>
@@ -5691,7 +5534,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>211</v>
       </c>
@@ -5702,7 +5545,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -5713,7 +5556,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>213</v>
       </c>
@@ -5724,7 +5567,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>214</v>
       </c>
@@ -5735,7 +5578,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>215</v>
       </c>
@@ -5746,7 +5589,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>216</v>
       </c>
@@ -5757,7 +5600,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>217</v>
       </c>
@@ -5768,7 +5611,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>218</v>
       </c>
@@ -5779,7 +5622,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>219</v>
       </c>
@@ -5790,7 +5633,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>220</v>
       </c>
@@ -5801,7 +5644,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>221</v>
       </c>
@@ -5812,7 +5655,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>222</v>
       </c>
@@ -5823,7 +5666,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -5834,7 +5677,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>224</v>
       </c>
@@ -5845,7 +5688,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>225</v>
       </c>
@@ -5856,7 +5699,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>226</v>
       </c>
@@ -5867,7 +5710,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>227</v>
       </c>
@@ -5878,7 +5721,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>228</v>
       </c>
@@ -5889,7 +5732,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>229</v>
       </c>
@@ -5900,7 +5743,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -5911,7 +5754,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>231</v>
       </c>
@@ -5922,7 +5765,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>232</v>
       </c>
@@ -5933,7 +5776,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>233</v>
       </c>
@@ -5944,7 +5787,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>234</v>
       </c>
@@ -5955,7 +5798,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>235</v>
       </c>
@@ -5966,7 +5809,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>236</v>
       </c>
@@ -5977,7 +5820,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>237</v>
       </c>
@@ -5988,7 +5831,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>238</v>
       </c>
@@ -5999,7 +5842,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>239</v>
       </c>
@@ -6010,7 +5853,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>240</v>
       </c>
@@ -6021,7 +5864,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>241</v>
       </c>
@@ -6032,7 +5875,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>242</v>
       </c>
@@ -6043,7 +5886,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>243</v>
       </c>
@@ -6054,7 +5897,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>244</v>
       </c>
@@ -6065,7 +5908,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -6076,7 +5919,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>246</v>
       </c>
@@ -6087,7 +5930,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>247</v>
       </c>
@@ -6098,7 +5941,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>248</v>
       </c>
@@ -6109,7 +5952,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>249</v>
       </c>
@@ -6120,7 +5963,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>250</v>
       </c>
@@ -6131,7 +5974,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>251</v>
       </c>
@@ -6142,7 +5985,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>252</v>
       </c>
@@ -6153,7 +5996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>253</v>
       </c>
@@ -6164,7 +6007,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>254</v>
       </c>
@@ -6175,7 +6018,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>255</v>
       </c>
@@ -6186,7 +6029,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>256</v>
       </c>
@@ -6197,7 +6040,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>257</v>
       </c>
@@ -6208,7 +6051,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -6219,7 +6062,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -6230,7 +6073,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>260</v>
       </c>
@@ -6241,7 +6084,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>261</v>
       </c>
@@ -6252,7 +6095,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>262</v>
       </c>
@@ -6263,7 +6106,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>263</v>
       </c>
@@ -6274,7 +6117,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>264</v>
       </c>
@@ -6285,7 +6128,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>265</v>
       </c>
@@ -6296,7 +6139,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>266</v>
       </c>
@@ -6307,7 +6150,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>267</v>
       </c>
@@ -6318,7 +6161,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -6329,7 +6172,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>269</v>
       </c>
@@ -6340,7 +6183,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>270</v>
       </c>
@@ -6351,7 +6194,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>271</v>
       </c>
@@ -6362,7 +6205,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>272</v>
       </c>
@@ -6373,7 +6216,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>273</v>
       </c>
@@ -6384,7 +6227,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>274</v>
       </c>
@@ -6395,7 +6238,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>275</v>
       </c>
@@ -6406,7 +6249,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>276</v>
       </c>
@@ -6417,7 +6260,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>277</v>
       </c>
@@ -6428,7 +6271,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>278</v>
       </c>
@@ -6439,7 +6282,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>279</v>
       </c>
@@ -6450,7 +6293,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>280</v>
       </c>
@@ -6461,7 +6304,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>281</v>
       </c>
@@ -6472,7 +6315,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>282</v>
       </c>
@@ -6483,7 +6326,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>283</v>
       </c>
@@ -6494,7 +6337,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>284</v>
       </c>
@@ -6505,7 +6348,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>285</v>
       </c>
@@ -6516,7 +6359,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>286</v>
       </c>
@@ -6527,7 +6370,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>287</v>
       </c>
@@ -6538,7 +6381,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>288</v>
       </c>
@@ -6549,7 +6392,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -6560,7 +6403,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>290</v>
       </c>
@@ -6571,7 +6414,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>291</v>
       </c>
@@ -6582,7 +6425,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>292</v>
       </c>
@@ -6593,7 +6436,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -6604,7 +6447,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>294</v>
       </c>
@@ -6615,7 +6458,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>295</v>
       </c>
@@ -6626,7 +6469,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -6637,7 +6480,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -6648,7 +6491,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>298</v>
       </c>
@@ -6659,7 +6502,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>299</v>
       </c>
@@ -6670,7 +6513,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>300</v>
       </c>
@@ -6681,7 +6524,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>301</v>
       </c>
@@ -6692,7 +6535,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>302</v>
       </c>
@@ -6703,7 +6546,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>303</v>
       </c>
@@ -6714,7 +6557,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>304</v>
       </c>
@@ -6725,7 +6568,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>305</v>
       </c>
@@ -6736,7 +6579,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>306</v>
       </c>
@@ -6747,7 +6590,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>307</v>
       </c>
@@ -6758,7 +6601,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>308</v>
       </c>
@@ -6769,7 +6612,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>309</v>
       </c>
@@ -6780,7 +6623,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -6791,7 +6634,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>311</v>
       </c>
@@ -6802,7 +6645,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>312</v>
       </c>
@@ -6813,7 +6656,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>313</v>
       </c>
@@ -6824,7 +6667,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>314</v>
       </c>
@@ -6835,7 +6678,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>315</v>
       </c>
@@ -6846,7 +6689,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>316</v>
       </c>
@@ -6857,7 +6700,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>317</v>
       </c>
@@ -6868,7 +6711,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>318</v>
       </c>
@@ -6879,7 +6722,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>319</v>
       </c>
@@ -6890,7 +6733,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>320</v>
       </c>
@@ -6901,7 +6744,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>321</v>
       </c>
@@ -6912,7 +6755,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>322</v>
       </c>
@@ -6923,7 +6766,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>323</v>
       </c>
@@ -6934,7 +6777,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>324</v>
       </c>
@@ -6945,7 +6788,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>325</v>
       </c>
@@ -6956,7 +6799,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>326</v>
       </c>
@@ -6967,7 +6810,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>327</v>
       </c>
@@ -6978,7 +6821,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -6989,7 +6832,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>329</v>
       </c>
@@ -7000,7 +6843,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>330</v>
       </c>
@@ -7011,7 +6854,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>331</v>
       </c>
@@ -7022,7 +6865,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>332</v>
       </c>
@@ -7033,7 +6876,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>333</v>
       </c>
@@ -7044,7 +6887,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>334</v>
       </c>
@@ -7055,7 +6898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>335</v>
       </c>
@@ -7066,7 +6909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>336</v>
       </c>
@@ -7077,7 +6920,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>337</v>
       </c>
@@ -7088,7 +6931,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>338</v>
       </c>
@@ -7099,7 +6942,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>339</v>
       </c>
@@ -7110,7 +6953,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>340</v>
       </c>
@@ -7121,7 +6964,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>341</v>
       </c>
@@ -7132,7 +6975,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>342</v>
       </c>
@@ -7143,7 +6986,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>343</v>
       </c>
@@ -7154,7 +6997,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>344</v>
       </c>
@@ -7165,7 +7008,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>345</v>
       </c>
@@ -7176,7 +7019,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>346</v>
       </c>
@@ -7187,7 +7030,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>347</v>
       </c>
@@ -7198,7 +7041,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>348</v>
       </c>
@@ -7209,7 +7052,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>349</v>
       </c>
@@ -7220,7 +7063,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>350</v>
       </c>
@@ -7231,7 +7074,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>351</v>
       </c>
@@ -7242,7 +7085,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>352</v>
       </c>
@@ -7253,7 +7096,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>353</v>
       </c>
@@ -7264,7 +7107,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>354</v>
       </c>
@@ -7275,7 +7118,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>355</v>
       </c>
@@ -7286,7 +7129,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>356</v>
       </c>
@@ -7297,7 +7140,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>357</v>
       </c>
@@ -7308,7 +7151,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>358</v>
       </c>
@@ -7319,7 +7162,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>359</v>
       </c>
@@ -7330,7 +7173,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>360</v>
       </c>
@@ -7341,7 +7184,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>361</v>
       </c>
@@ -7352,7 +7195,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>362</v>
       </c>
@@ -7363,7 +7206,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>363</v>
       </c>
@@ -7374,7 +7217,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>364</v>
       </c>
@@ -7385,7 +7228,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>365</v>
       </c>
@@ -7396,7 +7239,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>366</v>
       </c>
@@ -7407,7 +7250,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>367</v>
       </c>
@@ -7418,7 +7261,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>368</v>
       </c>
@@ -7429,7 +7272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>369</v>
       </c>
@@ -7440,7 +7283,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>370</v>
       </c>
@@ -7451,7 +7294,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>371</v>
       </c>
@@ -7462,7 +7305,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>372</v>
       </c>
@@ -7473,7 +7316,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>373</v>
       </c>
@@ -7484,7 +7327,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>374</v>
       </c>
@@ -7495,7 +7338,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>375</v>
       </c>
@@ -7506,7 +7349,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>376</v>
       </c>
@@ -7517,7 +7360,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>377</v>
       </c>
@@ -7528,7 +7371,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>378</v>
       </c>
@@ -7539,7 +7382,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>379</v>
       </c>
@@ -7550,7 +7393,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>380</v>
       </c>
@@ -7561,7 +7404,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>381</v>
       </c>
@@ -7572,7 +7415,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>382</v>
       </c>
@@ -7583,7 +7426,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>383</v>
       </c>
@@ -7594,7 +7437,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>384</v>
       </c>
@@ -7605,7 +7448,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>385</v>
       </c>
@@ -7616,7 +7459,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>386</v>
       </c>
@@ -7627,7 +7470,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>387</v>
       </c>
@@ -7638,7 +7481,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>388</v>
       </c>
@@ -7649,7 +7492,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>389</v>
       </c>
@@ -7660,7 +7503,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>390</v>
       </c>
@@ -7671,7 +7514,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>391</v>
       </c>
@@ -7682,7 +7525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -7693,7 +7536,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -7704,7 +7547,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -7715,7 +7558,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -7726,7 +7569,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -7737,7 +7580,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -7748,7 +7591,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>398</v>
       </c>
@@ -7759,7 +7602,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>399</v>
       </c>
@@ -7770,7 +7613,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>400</v>
       </c>
@@ -7781,7 +7624,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>401</v>
       </c>
@@ -7792,7 +7635,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>402</v>
       </c>
@@ -7803,7 +7646,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>403</v>
       </c>
@@ -7814,7 +7657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>404</v>
       </c>
@@ -7825,7 +7668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>405</v>
       </c>
@@ -7836,7 +7679,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>406</v>
       </c>
@@ -7847,7 +7690,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>407</v>
       </c>
@@ -7858,7 +7701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>408</v>
       </c>
@@ -7869,7 +7712,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>409</v>
       </c>
@@ -7880,7 +7723,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>410</v>
       </c>
@@ -7891,7 +7734,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>411</v>
       </c>
@@ -7902,7 +7745,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>412</v>
       </c>
@@ -7913,7 +7756,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>413</v>
       </c>
@@ -7924,7 +7767,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>414</v>
       </c>
@@ -7935,7 +7778,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>415</v>
       </c>
@@ -7946,7 +7789,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>416</v>
       </c>
@@ -7957,7 +7800,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>417</v>
       </c>
@@ -7968,7 +7811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>418</v>
       </c>
@@ -7979,7 +7822,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>419</v>
       </c>
@@ -7990,7 +7833,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>420</v>
       </c>
@@ -8001,7 +7844,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>421</v>
       </c>
@@ -8012,7 +7855,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>422</v>
       </c>
@@ -8023,7 +7866,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>423</v>
       </c>
@@ -8034,7 +7877,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>424</v>
       </c>
@@ -8045,7 +7888,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>425</v>
       </c>
@@ -8056,7 +7899,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>426</v>
       </c>
@@ -8067,7 +7910,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>427</v>
       </c>
@@ -8078,7 +7921,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>428</v>
       </c>
@@ -8089,7 +7932,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>429</v>
       </c>
@@ -8100,7 +7943,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>430</v>
       </c>
@@ -8111,7 +7954,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>431</v>
       </c>
@@ -8122,7 +7965,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>432</v>
       </c>
@@ -8133,7 +7976,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>433</v>
       </c>
@@ -8144,7 +7987,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>434</v>
       </c>
@@ -8155,7 +7998,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>435</v>
       </c>
@@ -8166,7 +8009,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>436</v>
       </c>
@@ -8177,7 +8020,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>437</v>
       </c>
@@ -8188,7 +8031,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>438</v>
       </c>
@@ -8199,7 +8042,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>439</v>
       </c>
@@ -8210,7 +8053,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>440</v>
       </c>
@@ -8221,7 +8064,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>441</v>
       </c>
@@ -8232,7 +8075,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>442</v>
       </c>
@@ -8243,7 +8086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>443</v>
       </c>
@@ -8254,7 +8097,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>444</v>
       </c>
@@ -8265,7 +8108,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>445</v>
       </c>
@@ -8276,7 +8119,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>446</v>
       </c>
@@ -8287,7 +8130,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>447</v>
       </c>
@@ -8298,7 +8141,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>448</v>
       </c>
@@ -8309,7 +8152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>449</v>
       </c>
@@ -8320,7 +8163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>450</v>
       </c>
@@ -8331,7 +8174,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>451</v>
       </c>
@@ -8342,7 +8185,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>452</v>
       </c>
@@ -8353,7 +8196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>453</v>
       </c>
@@ -8364,7 +8207,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>454</v>
       </c>
@@ -8375,7 +8218,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>455</v>
       </c>
@@ -8386,7 +8229,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>456</v>
       </c>
@@ -8397,7 +8240,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>457</v>
       </c>
@@ -8408,7 +8251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>458</v>
       </c>
@@ -8419,7 +8262,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>459</v>
       </c>
@@ -8430,7 +8273,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>460</v>
       </c>
@@ -8441,7 +8284,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>461</v>
       </c>
@@ -8452,7 +8295,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>462</v>
       </c>
@@ -8463,7 +8306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>463</v>
       </c>
@@ -8474,7 +8317,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>464</v>
       </c>
@@ -8485,7 +8328,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>465</v>
       </c>
@@ -8496,7 +8339,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>466</v>
       </c>
@@ -8507,7 +8350,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>467</v>
       </c>
@@ -8518,7 +8361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>468</v>
       </c>
@@ -8529,7 +8372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>469</v>
       </c>
@@ -8540,7 +8383,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>470</v>
       </c>
@@ -8551,7 +8394,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>471</v>
       </c>
@@ -8562,7 +8405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>472</v>
       </c>
@@ -8573,7 +8416,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>473</v>
       </c>
@@ -8584,7 +8427,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>474</v>
       </c>
@@ -8595,7 +8438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>475</v>
       </c>
@@ -8606,7 +8449,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>476</v>
       </c>
@@ -8617,7 +8460,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>477</v>
       </c>
@@ -8628,7 +8471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>478</v>
       </c>
@@ -8639,7 +8482,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>479</v>
       </c>
@@ -8650,7 +8493,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>480</v>
       </c>
@@ -8661,7 +8504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>481</v>
       </c>
@@ -8672,7 +8515,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>482</v>
       </c>
@@ -8683,7 +8526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>483</v>
       </c>
@@ -8694,7 +8537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>484</v>
       </c>
@@ -8705,7 +8548,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>485</v>
       </c>
@@ -8716,7 +8559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>486</v>
       </c>
@@ -8727,7 +8570,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>487</v>
       </c>
@@ -8738,7 +8581,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>488</v>
       </c>
@@ -8749,7 +8592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>489</v>
       </c>
@@ -8760,7 +8603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>490</v>
       </c>
@@ -8771,7 +8614,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>491</v>
       </c>
@@ -8782,7 +8625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>492</v>
       </c>
@@ -8793,7 +8636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>493</v>
       </c>
@@ -8804,7 +8647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>494</v>
       </c>
@@ -8815,7 +8658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>495</v>
       </c>
@@ -8826,7 +8669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>496</v>
       </c>
@@ -8837,7 +8680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>497</v>
       </c>
@@ -8848,7 +8691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>498</v>
       </c>
@@ -8859,7 +8702,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>499</v>
       </c>
@@ -8870,7 +8713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>500</v>
       </c>
@@ -8881,7 +8724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>501</v>
       </c>
@@ -8892,7 +8735,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>502</v>
       </c>
@@ -8903,7 +8746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>503</v>
       </c>
@@ -8914,7 +8757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>504</v>
       </c>
@@ -8925,7 +8768,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>505</v>
       </c>
@@ -8936,7 +8779,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>506</v>
       </c>
@@ -8947,7 +8790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>507</v>
       </c>
@@ -8958,7 +8801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>508</v>
       </c>
@@ -8969,7 +8812,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>509</v>
       </c>
@@ -8980,7 +8823,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>510</v>
       </c>
@@ -8991,7 +8834,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>511</v>
       </c>
@@ -9002,7 +8845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>512</v>
       </c>
@@ -9013,7 +8856,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>513</v>
       </c>
@@ -9024,7 +8867,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>514</v>
       </c>
@@ -9035,7 +8878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>515</v>
       </c>
@@ -9046,7 +8889,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>516</v>
       </c>
@@ -9057,7 +8900,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>517</v>
       </c>
@@ -9068,7 +8911,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>518</v>
       </c>
@@ -9079,7 +8922,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>519</v>
       </c>
@@ -9090,7 +8933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>520</v>
       </c>
@@ -9101,7 +8944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>521</v>
       </c>
@@ -9112,7 +8955,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>522</v>
       </c>
@@ -9123,7 +8966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>523</v>
       </c>
@@ -9134,7 +8977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>524</v>
       </c>
@@ -9145,7 +8988,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>525</v>
       </c>
@@ -9156,7 +8999,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>526</v>
       </c>
@@ -9167,7 +9010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>527</v>
       </c>
@@ -9178,7 +9021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>528</v>
       </c>
@@ -9189,7 +9032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>529</v>
       </c>
@@ -9200,7 +9043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>530</v>
       </c>
@@ -9211,7 +9054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>531</v>
       </c>
@@ -9222,7 +9065,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>532</v>
       </c>
@@ -9233,7 +9076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>533</v>
       </c>
@@ -9244,7 +9087,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>534</v>
       </c>
@@ -9255,7 +9098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>535</v>
       </c>
@@ -9266,7 +9109,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>536</v>
       </c>
@@ -9277,7 +9120,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>537</v>
       </c>
@@ -9288,7 +9131,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>538</v>
       </c>
@@ -9299,7 +9142,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>539</v>
       </c>
@@ -9310,7 +9153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>540</v>
       </c>
@@ -9321,7 +9164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>541</v>
       </c>
@@ -9332,7 +9175,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>542</v>
       </c>
@@ -9343,7 +9186,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>543</v>
       </c>
@@ -9354,7 +9197,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>544</v>
       </c>
@@ -9365,7 +9208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>545</v>
       </c>
@@ -9376,7 +9219,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>546</v>
       </c>
@@ -9387,7 +9230,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>547</v>
       </c>
@@ -9398,7 +9241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>548</v>
       </c>
@@ -9409,7 +9252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>549</v>
       </c>
@@ -9420,7 +9263,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>550</v>
       </c>
@@ -9431,7 +9274,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>551</v>
       </c>
@@ -9442,7 +9285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>552</v>
       </c>
@@ -9453,7 +9296,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>553</v>
       </c>
@@ -9464,7 +9307,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>554</v>
       </c>
@@ -9475,7 +9318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>555</v>
       </c>
@@ -9486,7 +9329,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>556</v>
       </c>
@@ -9497,7 +9340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>557</v>
       </c>
@@ -9508,7 +9351,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>558</v>
       </c>
@@ -9519,7 +9362,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>559</v>
       </c>
@@ -9530,7 +9373,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>560</v>
       </c>
@@ -9541,7 +9384,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>561</v>
       </c>
@@ -9552,7 +9395,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>562</v>
       </c>
@@ -9563,7 +9406,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>563</v>
       </c>
@@ -9574,7 +9417,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>564</v>
       </c>
@@ -9585,7 +9428,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>565</v>
       </c>
@@ -9596,7 +9439,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>566</v>
       </c>
@@ -9607,7 +9450,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>567</v>
       </c>
@@ -9618,7 +9461,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>568</v>
       </c>
@@ -9629,7 +9472,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>569</v>
       </c>
@@ -9640,7 +9483,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>570</v>
       </c>
@@ -9651,7 +9494,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>571</v>
       </c>
@@ -9662,7 +9505,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>572</v>
       </c>
@@ -9673,7 +9516,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>573</v>
       </c>
@@ -9684,7 +9527,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>574</v>
       </c>
@@ -9695,7 +9538,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>575</v>
       </c>
@@ -9706,7 +9549,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>576</v>
       </c>
@@ -9717,7 +9560,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>577</v>
       </c>
@@ -9728,7 +9571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>578</v>
       </c>
@@ -9739,7 +9582,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>579</v>
       </c>
@@ -9750,7 +9593,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>580</v>
       </c>
@@ -9761,7 +9604,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>581</v>
       </c>
@@ -9772,7 +9615,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>582</v>
       </c>
@@ -9783,7 +9626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>583</v>
       </c>
@@ -9794,7 +9637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>584</v>
       </c>
@@ -9805,7 +9648,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>585</v>
       </c>
@@ -9816,7 +9659,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>586</v>
       </c>
@@ -9827,7 +9670,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>587</v>
       </c>
@@ -9838,7 +9681,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>588</v>
       </c>
@@ -9849,7 +9692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>589</v>
       </c>
@@ -9860,7 +9703,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>590</v>
       </c>
@@ -9871,7 +9714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>591</v>
       </c>
@@ -9882,7 +9725,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>592</v>
       </c>
@@ -9893,7 +9736,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>593</v>
       </c>
@@ -9904,7 +9747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>594</v>
       </c>
@@ -9915,7 +9758,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>595</v>
       </c>
@@ -9926,7 +9769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>596</v>
       </c>
@@ -9937,7 +9780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>597</v>
       </c>
@@ -9948,7 +9791,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>598</v>
       </c>
@@ -9959,7 +9802,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>599</v>
       </c>
@@ -9970,7 +9813,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>600</v>
       </c>
@@ -9981,7 +9824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>601</v>
       </c>
@@ -9992,7 +9835,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>602</v>
       </c>
@@ -10003,7 +9846,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>603</v>
       </c>
@@ -10014,7 +9857,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>604</v>
       </c>
@@ -10025,7 +9868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>605</v>
       </c>
@@ -10036,7 +9879,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>606</v>
       </c>
@@ -10047,7 +9890,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>607</v>
       </c>
@@ -10058,7 +9901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>608</v>
       </c>
@@ -10069,7 +9912,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>609</v>
       </c>
@@ -10080,7 +9923,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>610</v>
       </c>
@@ -10091,7 +9934,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>611</v>
       </c>
@@ -10102,7 +9945,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>612</v>
       </c>
@@ -10113,7 +9956,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>613</v>
       </c>
@@ -10124,7 +9967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>614</v>
       </c>
@@ -10135,7 +9978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>615</v>
       </c>
@@ -10146,7 +9989,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>616</v>
       </c>
@@ -10157,7 +10000,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>617</v>
       </c>
@@ -10168,7 +10011,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>618</v>
       </c>
@@ -10179,7 +10022,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>619</v>
       </c>
@@ -10190,7 +10033,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>620</v>
       </c>
@@ -10201,7 +10044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>621</v>
       </c>
@@ -10212,7 +10055,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>622</v>
       </c>
@@ -10223,7 +10066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>623</v>
       </c>
@@ -10234,7 +10077,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>624</v>
       </c>
@@ -10245,7 +10088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>625</v>
       </c>
@@ -10256,7 +10099,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>626</v>
       </c>
@@ -10267,7 +10110,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>627</v>
       </c>
@@ -10278,7 +10121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>628</v>
       </c>
@@ -10289,7 +10132,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>629</v>
       </c>
@@ -10300,7 +10143,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>630</v>
       </c>
@@ -10311,7 +10154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>631</v>
       </c>
@@ -10322,7 +10165,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>632</v>
       </c>
@@ -10333,7 +10176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>633</v>
       </c>
@@ -10344,7 +10187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>634</v>
       </c>
@@ -10355,7 +10198,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>635</v>
       </c>
@@ -10366,7 +10209,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>636</v>
       </c>
@@ -10377,7 +10220,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>637</v>
       </c>
@@ -10388,7 +10231,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>638</v>
       </c>
@@ -10399,7 +10242,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>639</v>
       </c>
@@ -10410,7 +10253,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>640</v>
       </c>
@@ -10421,7 +10264,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>641</v>
       </c>
@@ -10432,7 +10275,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>642</v>
       </c>
@@ -10443,7 +10286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>643</v>
       </c>
@@ -10454,7 +10297,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>644</v>
       </c>
@@ -10465,7 +10308,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>645</v>
       </c>
@@ -10476,7 +10319,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>646</v>
       </c>
@@ -10487,7 +10330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>647</v>
       </c>
@@ -10498,7 +10341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>648</v>
       </c>
@@ -10509,7 +10352,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>649</v>
       </c>
@@ -10520,7 +10363,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>650</v>
       </c>
@@ -10531,7 +10374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>651</v>
       </c>
@@ -10542,7 +10385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>652</v>
       </c>
@@ -10553,7 +10396,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>653</v>
       </c>
@@ -10564,7 +10407,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>654</v>
       </c>
@@ -10575,7 +10418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>655</v>
       </c>
@@ -10586,7 +10429,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>656</v>
       </c>
@@ -10597,7 +10440,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>657</v>
       </c>
@@ -10608,7 +10451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>658</v>
       </c>
@@ -10619,7 +10462,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>659</v>
       </c>
@@ -10630,7 +10473,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>660</v>
       </c>
@@ -10641,7 +10484,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>661</v>
       </c>
@@ -10652,7 +10495,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>662</v>
       </c>
@@ -10663,7 +10506,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>663</v>
       </c>
@@ -10674,7 +10517,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>664</v>
       </c>
@@ -10685,7 +10528,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>665</v>
       </c>
@@ -10696,7 +10539,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>666</v>
       </c>
@@ -10707,7 +10550,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>667</v>
       </c>
@@ -10718,7 +10561,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>668</v>
       </c>
@@ -10729,7 +10572,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>669</v>
       </c>
@@ -10740,7 +10583,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>670</v>
       </c>
@@ -10751,7 +10594,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>671</v>
       </c>
@@ -10762,7 +10605,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>672</v>
       </c>
@@ -10773,7 +10616,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>673</v>
       </c>
@@ -10784,7 +10627,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>674</v>
       </c>
@@ -10795,7 +10638,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>675</v>
       </c>
@@ -10806,7 +10649,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>676</v>
       </c>
@@ -10817,7 +10660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>677</v>
       </c>
@@ -10828,7 +10671,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>678</v>
       </c>
@@ -10839,7 +10682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>679</v>
       </c>
@@ -10850,7 +10693,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>680</v>
       </c>
@@ -10861,7 +10704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>681</v>
       </c>
@@ -10872,7 +10715,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>682</v>
       </c>
@@ -10883,7 +10726,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>683</v>
       </c>
@@ -10894,7 +10737,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>684</v>
       </c>
@@ -10905,7 +10748,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>685</v>
       </c>
@@ -10916,7 +10759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>686</v>
       </c>
@@ -10927,7 +10770,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>687</v>
       </c>
@@ -10938,7 +10781,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>688</v>
       </c>
@@ -10949,7 +10792,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>689</v>
       </c>
@@ -10960,7 +10803,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>690</v>
       </c>
@@ -10971,7 +10814,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>691</v>
       </c>
@@ -10982,7 +10825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>692</v>
       </c>
@@ -10993,7 +10836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>693</v>
       </c>
@@ -11004,7 +10847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>694</v>
       </c>
@@ -11015,7 +10858,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>695</v>
       </c>
@@ -11026,7 +10869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>696</v>
       </c>
@@ -11037,7 +10880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>697</v>
       </c>
@@ -11048,7 +10891,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>698</v>
       </c>
@@ -11059,7 +10902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>699</v>
       </c>
@@ -11070,7 +10913,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>700</v>
       </c>
@@ -11081,7 +10924,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>701</v>
       </c>
@@ -11092,7 +10935,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>702</v>
       </c>
@@ -11103,7 +10946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>703</v>
       </c>
@@ -11114,7 +10957,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>704</v>
       </c>
@@ -11125,7 +10968,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>705</v>
       </c>
@@ -11136,7 +10979,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>706</v>
       </c>
@@ -11147,7 +10990,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>707</v>
       </c>
@@ -11158,7 +11001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>708</v>
       </c>
@@ -11169,7 +11012,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>709</v>
       </c>
@@ -11180,7 +11023,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>710</v>
       </c>
@@ -11191,7 +11034,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>711</v>
       </c>
@@ -11202,7 +11045,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>712</v>
       </c>
@@ -11213,7 +11056,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>713</v>
       </c>
@@ -11224,7 +11067,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>714</v>
       </c>
@@ -11235,7 +11078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>715</v>
       </c>
@@ -11246,7 +11089,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>716</v>
       </c>
@@ -11257,7 +11100,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>717</v>
       </c>
@@ -11268,7 +11111,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>718</v>
       </c>
@@ -11279,7 +11122,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>719</v>
       </c>
@@ -11290,7 +11133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>720</v>
       </c>
@@ -11301,7 +11144,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>721</v>
       </c>
@@ -11312,7 +11155,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>722</v>
       </c>
@@ -11323,7 +11166,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>723</v>
       </c>
@@ -11334,7 +11177,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>724</v>
       </c>
@@ -11345,7 +11188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>725</v>
       </c>
@@ -11356,7 +11199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>726</v>
       </c>
@@ -11367,7 +11210,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>727</v>
       </c>
@@ -11378,7 +11221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>728</v>
       </c>
@@ -11389,7 +11232,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>729</v>
       </c>
@@ -11400,7 +11243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>730</v>
       </c>
@@ -11411,7 +11254,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>731</v>
       </c>
@@ -11422,7 +11265,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>732</v>
       </c>
@@ -11433,7 +11276,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>733</v>
       </c>
@@ -11444,7 +11287,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>734</v>
       </c>
@@ -11455,7 +11298,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>735</v>
       </c>
@@ -11466,7 +11309,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>736</v>
       </c>
@@ -11477,7 +11320,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>737</v>
       </c>
@@ -11488,7 +11331,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>738</v>
       </c>
@@ -11499,7 +11342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>739</v>
       </c>
@@ -11510,7 +11353,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>740</v>
       </c>
@@ -11521,7 +11364,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>741</v>
       </c>
@@ -11532,7 +11375,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>742</v>
       </c>
@@ -11543,7 +11386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>743</v>
       </c>
@@ -11554,7 +11397,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>744</v>
       </c>
@@ -11565,7 +11408,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>745</v>
       </c>
@@ -11576,7 +11419,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>746</v>
       </c>
@@ -11587,7 +11430,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>747</v>
       </c>
@@ -11598,7 +11441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>748</v>
       </c>
@@ -11609,7 +11452,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>749</v>
       </c>
@@ -11620,7 +11463,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>750</v>
       </c>
@@ -11637,19 +11480,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11660,7 +11503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11671,7 +11514,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11682,7 +11525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11693,7 +11536,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11704,7 +11547,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -11715,7 +11558,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -11726,7 +11569,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -11737,7 +11580,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -11748,7 +11591,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -11759,7 +11602,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -11776,16 +11619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="BI10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11796,7 +11639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11807,7 +11650,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11818,7 +11661,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11829,7 +11672,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11840,7 +11683,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -11851,7 +11694,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -11862,7 +11705,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -11873,7 +11716,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -11884,7 +11727,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -11895,7 +11738,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -11912,20 +11755,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -11933,7 +11776,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>754</v>
       </c>
@@ -11941,7 +11784,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>755</v>
       </c>
@@ -11949,7 +11792,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>756</v>
       </c>
@@ -11957,7 +11800,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>757</v>
       </c>
@@ -11965,7 +11808,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>758</v>
       </c>
@@ -11973,7 +11816,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>759</v>
       </c>
@@ -11981,7 +11824,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>760</v>
       </c>
@@ -11989,7 +11832,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>761</v>
       </c>
@@ -11997,7 +11840,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>762</v>
       </c>
@@ -12005,7 +11848,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>763</v>
       </c>
@@ -12013,7 +11856,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>753</v>
       </c>
@@ -12021,7 +11864,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>763</v>
       </c>
@@ -12029,7 +11872,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>764</v>
       </c>
@@ -12037,7 +11880,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>765</v>
       </c>
@@ -12045,7 +11888,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>766</v>
       </c>
@@ -12053,7 +11896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>767</v>
       </c>
@@ -12061,7 +11904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>768</v>
       </c>
@@ -12069,7 +11912,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>769</v>
       </c>
@@ -12077,7 +11920,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>770</v>
       </c>
@@ -12085,7 +11928,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>771</v>
       </c>
@@ -12093,7 +11936,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>772</v>
       </c>
@@ -12107,20 +11950,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -12128,7 +11971,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>754</v>
       </c>
@@ -12136,7 +11979,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>755</v>
       </c>
@@ -12144,7 +11987,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>757</v>
       </c>
@@ -12152,7 +11995,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>773</v>
       </c>
@@ -12160,7 +12003,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>756</v>
       </c>
@@ -12174,221 +12017,222 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" t="s">
         <v>828</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>775</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B3">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B4">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B6">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B7">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B8">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B9">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B10">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B11">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B12">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B13">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B14">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B17">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B18">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B23">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B25">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B26">
         <v>22</v>
@@ -12400,60 +12244,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1" t="s">
         <v>800</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0.81632653061224403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>802</v>
       </c>
-      <c r="B2">
-        <v>81.599999999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0.122448979591836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>803</v>
       </c>
-      <c r="B3">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>4.08163265306122E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>804</v>
       </c>
-      <c r="B4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>805</v>
-      </c>
       <c r="B5">
-        <v>4.08</v>
+        <v>2.04081632653061E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/The Good Health.xlsx
+++ b/data/The Good Health.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Psych0delic_Boi\Desktop\datavisu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\View_Finders\datavisu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,21 @@
     <sheet name="view" sheetId="3" r:id="rId3"/>
     <sheet name="FacebookAge" sheetId="4" r:id="rId4"/>
     <sheet name="InstagramAge" sheetId="5" r:id="rId5"/>
-    <sheet name="Facebook_Geography" sheetId="6" r:id="rId6"/>
-    <sheet name="Insta_Geography" sheetId="7" r:id="rId7"/>
-    <sheet name="Audio" sheetId="8" r:id="rId8"/>
-    <sheet name="Audio_play" sheetId="9" r:id="rId9"/>
-    <sheet name="Audio_Geography" sheetId="10" r:id="rId10"/>
+    <sheet name="Tiktok_Age" sheetId="11" r:id="rId6"/>
+    <sheet name="Tiktok_Geography" sheetId="12" r:id="rId7"/>
+    <sheet name="Tiktok_Follower" sheetId="13" r:id="rId8"/>
+    <sheet name="Facebook_Geography" sheetId="6" r:id="rId9"/>
+    <sheet name="Insta_Geography" sheetId="7" r:id="rId10"/>
+    <sheet name="Audio" sheetId="8" r:id="rId11"/>
+    <sheet name="Audio_play" sheetId="9" r:id="rId12"/>
+    <sheet name="Audio_Geography" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="835">
   <si>
     <t>ageGroup</t>
   </si>
@@ -2515,6 +2518,24 @@
   </si>
   <si>
     <t>allEpisodes</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Followers</t>
+  </si>
+  <si>
+    <t>Difference in followers from previous day</t>
+  </si>
+  <si>
+    <t>View</t>
   </si>
 </sst>
 </file>
@@ -2550,8 +2571,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2981,6 +3004,359 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B2">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>756</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>778</v>
+      </c>
+      <c r="B6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>780</v>
+      </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>781</v>
+      </c>
+      <c r="B9">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>782</v>
+      </c>
+      <c r="B10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>783</v>
+      </c>
+      <c r="B11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>784</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>785</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>786</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>787</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>788</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>789</v>
+      </c>
+      <c r="B17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>790</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>791</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>792</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>793</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>794</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>795</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>796</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>797</v>
+      </c>
+      <c r="B25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>798</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B2">
+        <v>0.81632653061224403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3">
+        <v>0.122448979591836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B4">
+        <v>4.08163265306122E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B5">
+        <v>2.04081632653061E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11483,7 +11859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -11756,6 +12132,806 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B2">
+        <v>9722</v>
+      </c>
+      <c r="C2">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B3">
+        <v>9719</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44689</v>
+      </c>
+      <c r="B4">
+        <v>9717</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B5">
+        <v>9711</v>
+      </c>
+      <c r="C5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44691</v>
+      </c>
+      <c r="B6">
+        <v>9707</v>
+      </c>
+      <c r="C6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B7">
+        <v>9705</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44693</v>
+      </c>
+      <c r="B8">
+        <v>9703</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44694</v>
+      </c>
+      <c r="B9">
+        <v>9695</v>
+      </c>
+      <c r="C9">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44695</v>
+      </c>
+      <c r="B10">
+        <v>9689</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B11">
+        <v>9681</v>
+      </c>
+      <c r="C11">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44697</v>
+      </c>
+      <c r="B12">
+        <v>9682</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44698</v>
+      </c>
+      <c r="B13">
+        <v>9676</v>
+      </c>
+      <c r="C13">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B14">
+        <v>9675</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B15">
+        <v>9674</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B16">
+        <v>9674</v>
+      </c>
+      <c r="C16">
+        <v>-9674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44702</v>
+      </c>
+      <c r="B17">
+        <v>9670</v>
+      </c>
+      <c r="C17">
+        <v>9670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44703</v>
+      </c>
+      <c r="B18">
+        <v>9667</v>
+      </c>
+      <c r="C18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44704</v>
+      </c>
+      <c r="B19">
+        <v>9665</v>
+      </c>
+      <c r="C19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B20">
+        <v>9665</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B21">
+        <v>9661</v>
+      </c>
+      <c r="C21">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44707</v>
+      </c>
+      <c r="B22">
+        <v>9658</v>
+      </c>
+      <c r="C22">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B23">
+        <v>9659</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44709</v>
+      </c>
+      <c r="B24">
+        <v>9657</v>
+      </c>
+      <c r="C24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44710</v>
+      </c>
+      <c r="B25">
+        <v>9657</v>
+      </c>
+      <c r="C25">
+        <v>-9657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44711</v>
+      </c>
+      <c r="B26">
+        <v>9660</v>
+      </c>
+      <c r="C26">
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B27">
+        <v>9653</v>
+      </c>
+      <c r="C27">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B28">
+        <v>9648</v>
+      </c>
+      <c r="C28">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B29">
+        <v>9646</v>
+      </c>
+      <c r="C29">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44715</v>
+      </c>
+      <c r="B30">
+        <v>9640</v>
+      </c>
+      <c r="C30">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44716</v>
+      </c>
+      <c r="B31">
+        <v>9636</v>
+      </c>
+      <c r="C31">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44717</v>
+      </c>
+      <c r="B32">
+        <v>9634</v>
+      </c>
+      <c r="C32">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44718</v>
+      </c>
+      <c r="B33">
+        <v>9632</v>
+      </c>
+      <c r="C33">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B34">
+        <v>9632</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44720</v>
+      </c>
+      <c r="B35">
+        <v>9628</v>
+      </c>
+      <c r="C35">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44721</v>
+      </c>
+      <c r="B36">
+        <v>9626</v>
+      </c>
+      <c r="C36">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44722</v>
+      </c>
+      <c r="B37">
+        <v>9621</v>
+      </c>
+      <c r="C37">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B38">
+        <v>9619</v>
+      </c>
+      <c r="C38">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44724</v>
+      </c>
+      <c r="B39">
+        <v>9615</v>
+      </c>
+      <c r="C39">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44725</v>
+      </c>
+      <c r="B40">
+        <v>9610</v>
+      </c>
+      <c r="C40">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44726</v>
+      </c>
+      <c r="B41">
+        <v>9610</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B42">
+        <v>9605</v>
+      </c>
+      <c r="C42">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44728</v>
+      </c>
+      <c r="B43">
+        <v>9604</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B44">
+        <v>9602</v>
+      </c>
+      <c r="C44">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44730</v>
+      </c>
+      <c r="B45">
+        <v>9599</v>
+      </c>
+      <c r="C45">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44731</v>
+      </c>
+      <c r="B46">
+        <v>9596</v>
+      </c>
+      <c r="C46">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B47">
+        <v>9592</v>
+      </c>
+      <c r="C47">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B48">
+        <v>9588</v>
+      </c>
+      <c r="C48">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44734</v>
+      </c>
+      <c r="B49">
+        <v>9585</v>
+      </c>
+      <c r="C49">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44735</v>
+      </c>
+      <c r="B50">
+        <v>9582</v>
+      </c>
+      <c r="C50">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B51">
+        <v>9582</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44737</v>
+      </c>
+      <c r="B52">
+        <v>9579</v>
+      </c>
+      <c r="C52">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B53">
+        <v>9577</v>
+      </c>
+      <c r="C53">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B54">
+        <v>9571</v>
+      </c>
+      <c r="C54">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B55">
+        <v>9565</v>
+      </c>
+      <c r="C55">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B56">
+        <v>9565</v>
+      </c>
+      <c r="C56">
+        <v>-9565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B57">
+        <v>9555</v>
+      </c>
+      <c r="C57">
+        <v>9555</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B58">
+        <v>9550</v>
+      </c>
+      <c r="C58">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B59">
+        <v>9547</v>
+      </c>
+      <c r="C59">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B60">
+        <v>9542</v>
+      </c>
+      <c r="C60">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B61">
+        <v>9540</v>
+      </c>
+      <c r="C61">
+        <v>-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11947,357 +13123,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B2">
-        <v>53.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>755</v>
-      </c>
-      <c r="B3">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>757</v>
-      </c>
-      <c r="B4">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>773</v>
-      </c>
-      <c r="B5">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>756</v>
-      </c>
-      <c r="B6">
-        <v>1.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>776</v>
-      </c>
-      <c r="B4">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>777</v>
-      </c>
-      <c r="B5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>778</v>
-      </c>
-      <c r="B6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>779</v>
-      </c>
-      <c r="B7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>780</v>
-      </c>
-      <c r="B8">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>781</v>
-      </c>
-      <c r="B9">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>782</v>
-      </c>
-      <c r="B10">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>783</v>
-      </c>
-      <c r="B11">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>784</v>
-      </c>
-      <c r="B12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>785</v>
-      </c>
-      <c r="B13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>786</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>787</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>788</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>789</v>
-      </c>
-      <c r="B17">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>790</v>
-      </c>
-      <c r="B18">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>791</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>792</v>
-      </c>
-      <c r="B20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>793</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>794</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>795</v>
-      </c>
-      <c r="B23">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>796</v>
-      </c>
-      <c r="B24">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>797</v>
-      </c>
-      <c r="B25">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>798</v>
-      </c>
-      <c r="B26">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>801</v>
-      </c>
-      <c r="B2">
-        <v>0.81632653061224403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>802</v>
-      </c>
-      <c r="B3">
-        <v>0.122448979591836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>803</v>
-      </c>
-      <c r="B4">
-        <v>4.08163265306122E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>804</v>
-      </c>
-      <c r="B5">
-        <v>2.04081632653061E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/The Good Health.xlsx
+++ b/data/The Good Health.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swopil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\View_Finders\Visualizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{390ACC7E-A734-4940-B1FA-243D94B0A7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="GenderWiseAge" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="837">
   <si>
     <t>ageGroup</t>
   </si>
@@ -2537,19 +2536,30 @@
   </si>
   <si>
     <t>View</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2560,7 +2570,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2568,14 +2578,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2669,23 +2702,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2721,23 +2737,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2913,16 +2912,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -3049,65 +3048,101 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>754</v>
       </c>
       <c r="B2">
         <v>53.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>27.708317000000001</v>
+      </c>
+      <c r="D2">
+        <v>85.320581700000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>755</v>
       </c>
       <c r="B3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>28.209537999999998</v>
+      </c>
+      <c r="D3">
+        <v>83.991401999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>757</v>
       </c>
       <c r="B4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>27.6879749</v>
+      </c>
+      <c r="D4">
+        <v>84.436082619999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>773</v>
       </c>
       <c r="B5">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>-33.869843899999999</v>
+      </c>
+      <c r="D5">
+        <v>151.2082848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>756</v>
       </c>
       <c r="B6">
         <v>1.5</v>
+      </c>
+      <c r="C6">
+        <v>27.682773099999999</v>
+      </c>
+      <c r="D6">
+        <v>83.443862050000007</v>
       </c>
     </row>
   </sheetData>
@@ -3116,20 +3151,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>827</v>
       </c>
@@ -3137,7 +3172,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>774</v>
       </c>
@@ -3145,7 +3180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>775</v>
       </c>
@@ -3153,7 +3188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>776</v>
       </c>
@@ -3161,7 +3196,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>777</v>
       </c>
@@ -3169,7 +3204,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>778</v>
       </c>
@@ -3177,7 +3212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>779</v>
       </c>
@@ -3185,7 +3220,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>780</v>
       </c>
@@ -3193,7 +3228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>781</v>
       </c>
@@ -3201,7 +3236,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>782</v>
       </c>
@@ -3209,7 +3244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>783</v>
       </c>
@@ -3217,7 +3252,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>784</v>
       </c>
@@ -3225,7 +3260,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>785</v>
       </c>
@@ -3233,7 +3268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>786</v>
       </c>
@@ -3241,7 +3276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>787</v>
       </c>
@@ -3249,7 +3284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>788</v>
       </c>
@@ -3257,7 +3292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>789</v>
       </c>
@@ -3265,7 +3300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>790</v>
       </c>
@@ -3273,7 +3308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>791</v>
       </c>
@@ -3281,7 +3316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>792</v>
       </c>
@@ -3289,7 +3324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>793</v>
       </c>
@@ -3297,7 +3332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>794</v>
       </c>
@@ -3305,7 +3340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>795</v>
       </c>
@@ -3313,7 +3348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>796</v>
       </c>
@@ -3321,7 +3356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>797</v>
       </c>
@@ -3329,7 +3364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>798</v>
       </c>
@@ -3343,20 +3378,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>799</v>
       </c>
@@ -3364,7 +3399,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>801</v>
       </c>
@@ -3372,7 +3407,7 @@
         <v>0.81632653061224403</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>802</v>
       </c>
@@ -3380,7 +3415,7 @@
         <v>0.122448979591836</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>803</v>
       </c>
@@ -3388,7 +3423,7 @@
         <v>4.08163265306122E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>804</v>
       </c>
@@ -3402,257 +3437,437 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>805</v>
       </c>
       <c r="B1" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>753</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="D2">
+        <v>84.091713900000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>764</v>
       </c>
       <c r="B3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="D3">
+        <v>-100.445882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>771</v>
       </c>
       <c r="B4">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>36.638392000000003</v>
+      </c>
+      <c r="D4">
+        <v>127.69611879999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>765</v>
       </c>
       <c r="B5">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>-24.776108600000001</v>
+      </c>
+      <c r="D5">
+        <v>134.755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>768</v>
       </c>
       <c r="B6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>54.702354499999998</v>
+      </c>
+      <c r="D6">
+        <v>-3.2765753000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>767</v>
       </c>
       <c r="B7">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>24.000248800000001</v>
+      </c>
+      <c r="D7">
+        <v>53.999482899999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>766</v>
       </c>
       <c r="B8">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>22.351114800000001</v>
+      </c>
+      <c r="D8">
+        <v>78.667742799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>806</v>
       </c>
       <c r="B9">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>51.1638175</v>
+      </c>
+      <c r="D9">
+        <v>10.447831300000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>807</v>
       </c>
       <c r="B10">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>22.279327800000001</v>
+      </c>
+      <c r="D10">
+        <v>114.16281309999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>808</v>
       </c>
       <c r="B11">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>22.189944799999999</v>
+      </c>
+      <c r="D11">
+        <v>113.5380454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>809</v>
       </c>
       <c r="B12">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>-41.500083099999998</v>
+      </c>
+      <c r="D12">
+        <v>172.83440770000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>810</v>
       </c>
       <c r="B13">
         <v>4.8951048951048903E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>52.865195999999997</v>
+      </c>
+      <c r="D13">
+        <v>-7.9794599000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>811</v>
       </c>
       <c r="B14">
         <v>4.1958041958041897E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>61.066692199999999</v>
+      </c>
+      <c r="D14">
+        <v>-107.99170700000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>812</v>
       </c>
       <c r="B15">
         <v>4.1958041958041897E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>23.658511600000001</v>
+      </c>
+      <c r="D15">
+        <v>-102.00770970000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>813</v>
       </c>
       <c r="B16">
         <v>2.0979020979020901E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>46.825038800000002</v>
+      </c>
+      <c r="D16">
+        <v>103.8499736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>814</v>
       </c>
       <c r="B17">
         <v>1.3986013986013899E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>-18.4554963</v>
+      </c>
+      <c r="D17">
+        <v>29.746841400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>815</v>
       </c>
       <c r="B18">
         <v>1.3986013986013899E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1.3571070000000001</v>
+      </c>
+      <c r="D18">
+        <v>103.8194992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>816</v>
       </c>
       <c r="B19">
         <v>1.3986013986013899E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>55.670248999999998</v>
+      </c>
+      <c r="D19">
+        <v>10.3333283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>817</v>
       </c>
       <c r="B20">
         <v>1.3986013986013899E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>60.500020900000003</v>
+      </c>
+      <c r="D20">
+        <v>9.0999715000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>769</v>
       </c>
       <c r="B21">
         <v>1.3986013986013899E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>36.5748441</v>
+      </c>
+      <c r="D21">
+        <v>139.23941790000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>818</v>
       </c>
       <c r="B22">
         <v>6.9930069930069897E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>-28.8166236</v>
+      </c>
+      <c r="D22">
+        <v>24.991638999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>819</v>
       </c>
       <c r="B23">
         <v>6.9930069930069897E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>40.033262899999997</v>
+      </c>
+      <c r="D23">
+        <v>-7.8896262999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>820</v>
       </c>
       <c r="B24">
         <v>6.9930069930069897E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>58.752377799999998</v>
+      </c>
+      <c r="D24">
+        <v>25.3319078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>821</v>
       </c>
       <c r="B25">
         <v>6.9930069930069897E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>30.812424700000001</v>
+      </c>
+      <c r="D25">
+        <v>34.859476200000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>822</v>
       </c>
       <c r="B26">
         <v>6.9930069930069897E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>49.4871968</v>
+      </c>
+      <c r="D26">
+        <v>31.271832100000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>823</v>
       </c>
       <c r="B27">
         <v>6.9930069930069897E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>38.959759400000003</v>
+      </c>
+      <c r="D27">
+        <v>34.924965299999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>824</v>
       </c>
       <c r="B28">
         <v>6.9930069930069897E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>15.585554500000001</v>
+      </c>
+      <c r="D28">
+        <v>-90.345759000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>825</v>
       </c>
       <c r="B29">
         <v>6.9930069930069897E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>24.4769288</v>
+      </c>
+      <c r="D29">
+        <v>90.293441299999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>826</v>
       </c>
       <c r="B30">
         <v>6.9930069930069897E-4</v>
+      </c>
+      <c r="C30">
+        <v>46.603354000000003</v>
+      </c>
+      <c r="D30">
+        <v>1.8883335000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3661,21 +3876,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3691,8 +3908,14 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3708,8 +3931,14 @@
       <c r="E2">
         <v>13.21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>24.000248800000001</v>
+      </c>
+      <c r="G2">
+        <v>53.999482899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3725,8 +3954,14 @@
       <c r="E3">
         <v>15.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>-24.776108600000001</v>
+      </c>
+      <c r="G3">
+        <v>134.755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3742,8 +3977,14 @@
       <c r="E4">
         <v>4.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>24.4769288</v>
+      </c>
+      <c r="G4">
+        <v>90.293441299999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3759,8 +4000,14 @@
       <c r="E5">
         <v>7.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>55.670248999999998</v>
+      </c>
+      <c r="G5">
+        <v>10.3333283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3776,8 +4023,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>63.246777700000003</v>
+      </c>
+      <c r="G6">
+        <v>25.920916399999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3793,8 +4046,14 @@
       <c r="E7">
         <v>20.079999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>54.702354499999998</v>
+      </c>
+      <c r="G7">
+        <v>-3.2765753000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3810,8 +4069,14 @@
       <c r="E8">
         <v>15.58</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>22.350626999999999</v>
+      </c>
+      <c r="G8">
+        <v>114.1849161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3827,8 +4092,14 @@
       <c r="E9">
         <v>15.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>40.079660599999997</v>
+      </c>
+      <c r="G9">
+        <v>-89.433728799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3844,8 +4115,14 @@
       <c r="E10">
         <v>6.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>22.351114800000001</v>
+      </c>
+      <c r="G10">
+        <v>78.667742799999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3861,8 +4138,14 @@
       <c r="E11">
         <v>23.23</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>36.5748441</v>
+      </c>
+      <c r="G11">
+        <v>139.23941790000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3878,8 +4161,14 @@
       <c r="E12">
         <v>10.130000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>3.7203503000000002</v>
+      </c>
+      <c r="G12">
+        <v>73.224415199999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3895,8 +4184,14 @@
       <c r="E13">
         <v>12.96</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="G13">
+        <v>84.091713900000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3912,8 +4207,14 @@
       <c r="E14">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>30.3308401</v>
+      </c>
+      <c r="G14">
+        <v>71.247499000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3929,8 +4230,14 @@
       <c r="E15">
         <v>32.74</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1.3571070000000001</v>
+      </c>
+      <c r="G15">
+        <v>103.8194992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3945,6 +4252,12 @@
       </c>
       <c r="E16">
         <v>15.76</v>
+      </c>
+      <c r="F16">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="G16">
+        <v>-100.445882</v>
       </c>
     </row>
   </sheetData>
@@ -3953,19 +4266,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C721"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -3976,7 +4289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3987,7 +4300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3998,7 +4311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4009,7 +4322,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4020,7 +4333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -4031,7 +4344,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -4042,7 +4355,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4053,7 +4366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4064,7 +4377,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -4075,7 +4388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -4086,7 +4399,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -4097,7 +4410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -4108,7 +4421,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -4119,7 +4432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4130,7 +4443,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -4141,7 +4454,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -4152,7 +4465,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -4163,7 +4476,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -4174,7 +4487,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -4185,7 +4498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -4196,7 +4509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -4207,7 +4520,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -4218,7 +4531,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -4229,7 +4542,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -4240,7 +4553,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -4251,7 +4564,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -4262,7 +4575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -4273,7 +4586,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -4284,7 +4597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -4295,7 +4608,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -4306,7 +4619,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4317,7 +4630,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -4328,7 +4641,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4339,7 +4652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -4350,7 +4663,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -4361,7 +4674,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -4372,7 +4685,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -4383,7 +4696,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -4394,7 +4707,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -4405,7 +4718,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -4416,7 +4729,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -4427,7 +4740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -4438,7 +4751,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -4449,7 +4762,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -4460,7 +4773,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -4471,7 +4784,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -4482,7 +4795,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -4493,7 +4806,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -4504,7 +4817,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -4515,7 +4828,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -4526,7 +4839,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -4537,7 +4850,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -4548,7 +4861,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -4559,7 +4872,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -4570,7 +4883,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -4581,7 +4894,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -4592,7 +4905,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -4603,7 +4916,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4614,7 +4927,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -4625,7 +4938,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -4636,7 +4949,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -4647,7 +4960,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -4658,7 +4971,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -4669,7 +4982,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -4680,7 +4993,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -4691,7 +5004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -4702,7 +5015,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -4713,7 +5026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -4724,7 +5037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -4735,7 +5048,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -4746,7 +5059,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -4757,7 +5070,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -4768,7 +5081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -4779,7 +5092,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -4790,7 +5103,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -4801,7 +5114,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -4812,7 +5125,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -4823,7 +5136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -4834,7 +5147,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -4845,7 +5158,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -4856,7 +5169,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -4867,7 +5180,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -4878,7 +5191,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -4889,7 +5202,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -4900,7 +5213,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -4911,7 +5224,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -4922,7 +5235,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -4933,7 +5246,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -4944,7 +5257,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -4955,7 +5268,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -4966,7 +5279,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -4977,7 +5290,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -4988,7 +5301,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -4999,7 +5312,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -5010,7 +5323,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -5021,7 +5334,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -5032,7 +5345,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -5043,7 +5356,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -5054,7 +5367,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -5065,7 +5378,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -5076,7 +5389,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -5087,7 +5400,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -5098,7 +5411,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -5109,7 +5422,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -5120,7 +5433,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -5131,7 +5444,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -5142,7 +5455,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>137</v>
       </c>
@@ -5153,7 +5466,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -5164,7 +5477,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>139</v>
       </c>
@@ -5175,7 +5488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -5186,7 +5499,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -5197,7 +5510,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>142</v>
       </c>
@@ -5208,7 +5521,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>143</v>
       </c>
@@ -5219,7 +5532,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>144</v>
       </c>
@@ -5230,7 +5543,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>145</v>
       </c>
@@ -5241,7 +5554,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>146</v>
       </c>
@@ -5252,7 +5565,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -5263,7 +5576,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>148</v>
       </c>
@@ -5274,7 +5587,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -5285,7 +5598,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>150</v>
       </c>
@@ -5296,7 +5609,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>151</v>
       </c>
@@ -5307,7 +5620,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>152</v>
       </c>
@@ -5318,7 +5631,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>153</v>
       </c>
@@ -5329,7 +5642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>154</v>
       </c>
@@ -5340,7 +5653,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -5351,7 +5664,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>156</v>
       </c>
@@ -5362,7 +5675,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>157</v>
       </c>
@@ -5373,7 +5686,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>158</v>
       </c>
@@ -5384,7 +5697,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>159</v>
       </c>
@@ -5395,7 +5708,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -5406,7 +5719,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>161</v>
       </c>
@@ -5417,7 +5730,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>162</v>
       </c>
@@ -5428,7 +5741,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>163</v>
       </c>
@@ -5439,7 +5752,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>164</v>
       </c>
@@ -5450,7 +5763,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -5461,7 +5774,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>166</v>
       </c>
@@ -5472,7 +5785,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -5483,7 +5796,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -5494,7 +5807,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>169</v>
       </c>
@@ -5505,7 +5818,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>170</v>
       </c>
@@ -5516,7 +5829,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>171</v>
       </c>
@@ -5527,7 +5840,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>172</v>
       </c>
@@ -5538,7 +5851,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>173</v>
       </c>
@@ -5549,7 +5862,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>174</v>
       </c>
@@ -5560,7 +5873,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>175</v>
       </c>
@@ -5571,7 +5884,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>176</v>
       </c>
@@ -5582,7 +5895,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>177</v>
       </c>
@@ -5593,7 +5906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>178</v>
       </c>
@@ -5604,7 +5917,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>179</v>
       </c>
@@ -5615,7 +5928,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>180</v>
       </c>
@@ -5626,7 +5939,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>181</v>
       </c>
@@ -5637,7 +5950,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>182</v>
       </c>
@@ -5648,7 +5961,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>183</v>
       </c>
@@ -5659,7 +5972,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>184</v>
       </c>
@@ -5670,7 +5983,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>185</v>
       </c>
@@ -5681,7 +5994,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>186</v>
       </c>
@@ -5692,7 +6005,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -5703,7 +6016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -5714,7 +6027,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -5725,7 +6038,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>190</v>
       </c>
@@ -5736,7 +6049,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>191</v>
       </c>
@@ -5747,7 +6060,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>192</v>
       </c>
@@ -5758,7 +6071,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>193</v>
       </c>
@@ -5769,7 +6082,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>194</v>
       </c>
@@ -5780,7 +6093,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>195</v>
       </c>
@@ -5791,7 +6104,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>196</v>
       </c>
@@ -5802,7 +6115,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>197</v>
       </c>
@@ -5813,7 +6126,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>198</v>
       </c>
@@ -5824,7 +6137,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>199</v>
       </c>
@@ -5835,7 +6148,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>200</v>
       </c>
@@ -5846,7 +6159,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>201</v>
       </c>
@@ -5857,7 +6170,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>202</v>
       </c>
@@ -5868,7 +6181,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>203</v>
       </c>
@@ -5879,7 +6192,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>204</v>
       </c>
@@ -5890,7 +6203,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>205</v>
       </c>
@@ -5901,7 +6214,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -5912,7 +6225,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>207</v>
       </c>
@@ -5923,7 +6236,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>208</v>
       </c>
@@ -5934,7 +6247,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>209</v>
       </c>
@@ -5945,7 +6258,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>210</v>
       </c>
@@ -5956,7 +6269,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>211</v>
       </c>
@@ -5967,7 +6280,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -5978,7 +6291,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>213</v>
       </c>
@@ -5989,7 +6302,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>214</v>
       </c>
@@ -6000,7 +6313,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>215</v>
       </c>
@@ -6011,7 +6324,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>216</v>
       </c>
@@ -6022,7 +6335,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>217</v>
       </c>
@@ -6033,7 +6346,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>218</v>
       </c>
@@ -6044,7 +6357,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>219</v>
       </c>
@@ -6055,7 +6368,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>220</v>
       </c>
@@ -6066,7 +6379,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>221</v>
       </c>
@@ -6077,7 +6390,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>222</v>
       </c>
@@ -6088,7 +6401,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -6099,7 +6412,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>224</v>
       </c>
@@ -6110,7 +6423,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>225</v>
       </c>
@@ -6121,7 +6434,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>226</v>
       </c>
@@ -6132,7 +6445,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>227</v>
       </c>
@@ -6143,7 +6456,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>228</v>
       </c>
@@ -6154,7 +6467,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>229</v>
       </c>
@@ -6165,7 +6478,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>230</v>
       </c>
@@ -6176,7 +6489,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>231</v>
       </c>
@@ -6187,7 +6500,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>232</v>
       </c>
@@ -6198,7 +6511,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>233</v>
       </c>
@@ -6209,7 +6522,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>234</v>
       </c>
@@ -6220,7 +6533,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>235</v>
       </c>
@@ -6231,7 +6544,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>236</v>
       </c>
@@ -6242,7 +6555,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>237</v>
       </c>
@@ -6253,7 +6566,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>238</v>
       </c>
@@ -6264,7 +6577,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>239</v>
       </c>
@@ -6275,7 +6588,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>240</v>
       </c>
@@ -6286,7 +6599,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>241</v>
       </c>
@@ -6297,7 +6610,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>242</v>
       </c>
@@ -6308,7 +6621,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>243</v>
       </c>
@@ -6319,7 +6632,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>244</v>
       </c>
@@ -6330,7 +6643,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -6341,7 +6654,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>246</v>
       </c>
@@ -6352,7 +6665,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>247</v>
       </c>
@@ -6363,7 +6676,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>248</v>
       </c>
@@ -6374,7 +6687,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>249</v>
       </c>
@@ -6385,7 +6698,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>250</v>
       </c>
@@ -6396,7 +6709,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>251</v>
       </c>
@@ -6407,7 +6720,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>252</v>
       </c>
@@ -6418,7 +6731,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>253</v>
       </c>
@@ -6429,7 +6742,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>254</v>
       </c>
@@ -6440,7 +6753,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>255</v>
       </c>
@@ -6451,7 +6764,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>256</v>
       </c>
@@ -6462,7 +6775,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>257</v>
       </c>
@@ -6473,7 +6786,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -6484,7 +6797,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -6495,7 +6808,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>260</v>
       </c>
@@ -6506,7 +6819,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>261</v>
       </c>
@@ -6517,7 +6830,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>262</v>
       </c>
@@ -6528,7 +6841,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>263</v>
       </c>
@@ -6539,7 +6852,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>264</v>
       </c>
@@ -6550,7 +6863,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>265</v>
       </c>
@@ -6561,7 +6874,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>266</v>
       </c>
@@ -6572,7 +6885,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>267</v>
       </c>
@@ -6583,7 +6896,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -6594,7 +6907,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>269</v>
       </c>
@@ -6605,7 +6918,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>270</v>
       </c>
@@ -6616,7 +6929,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>271</v>
       </c>
@@ -6627,7 +6940,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>272</v>
       </c>
@@ -6638,7 +6951,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>273</v>
       </c>
@@ -6649,7 +6962,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>274</v>
       </c>
@@ -6660,7 +6973,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>275</v>
       </c>
@@ -6671,7 +6984,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>276</v>
       </c>
@@ -6682,7 +6995,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>277</v>
       </c>
@@ -6693,7 +7006,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>278</v>
       </c>
@@ -6704,7 +7017,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>279</v>
       </c>
@@ -6715,7 +7028,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>280</v>
       </c>
@@ -6726,7 +7039,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>281</v>
       </c>
@@ -6737,7 +7050,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>282</v>
       </c>
@@ -6748,7 +7061,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>283</v>
       </c>
@@ -6759,7 +7072,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>284</v>
       </c>
@@ -6770,7 +7083,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>285</v>
       </c>
@@ -6781,7 +7094,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>286</v>
       </c>
@@ -6792,7 +7105,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>287</v>
       </c>
@@ -6803,7 +7116,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>288</v>
       </c>
@@ -6814,7 +7127,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>289</v>
       </c>
@@ -6825,7 +7138,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>290</v>
       </c>
@@ -6836,7 +7149,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>291</v>
       </c>
@@ -6847,7 +7160,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>292</v>
       </c>
@@ -6858,7 +7171,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -6869,7 +7182,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>294</v>
       </c>
@@ -6880,7 +7193,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>295</v>
       </c>
@@ -6891,7 +7204,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -6902,7 +7215,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -6913,7 +7226,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>298</v>
       </c>
@@ -6924,7 +7237,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>299</v>
       </c>
@@ -6935,7 +7248,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>300</v>
       </c>
@@ -6946,7 +7259,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>301</v>
       </c>
@@ -6957,7 +7270,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>302</v>
       </c>
@@ -6968,7 +7281,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>303</v>
       </c>
@@ -6979,7 +7292,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>304</v>
       </c>
@@ -6990,7 +7303,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>305</v>
       </c>
@@ -7001,7 +7314,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>306</v>
       </c>
@@ -7012,7 +7325,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>307</v>
       </c>
@@ -7023,7 +7336,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>308</v>
       </c>
@@ -7034,7 +7347,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>309</v>
       </c>
@@ -7045,7 +7358,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>310</v>
       </c>
@@ -7056,7 +7369,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>311</v>
       </c>
@@ -7067,7 +7380,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>312</v>
       </c>
@@ -7078,7 +7391,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>313</v>
       </c>
@@ -7089,7 +7402,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>314</v>
       </c>
@@ -7100,7 +7413,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>315</v>
       </c>
@@ -7111,7 +7424,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>316</v>
       </c>
@@ -7122,7 +7435,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>317</v>
       </c>
@@ -7133,7 +7446,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>318</v>
       </c>
@@ -7144,7 +7457,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>319</v>
       </c>
@@ -7155,7 +7468,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>320</v>
       </c>
@@ -7166,7 +7479,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>321</v>
       </c>
@@ -7177,7 +7490,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>322</v>
       </c>
@@ -7188,7 +7501,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>323</v>
       </c>
@@ -7199,7 +7512,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>324</v>
       </c>
@@ -7210,7 +7523,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>325</v>
       </c>
@@ -7221,7 +7534,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>326</v>
       </c>
@@ -7232,7 +7545,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>327</v>
       </c>
@@ -7243,7 +7556,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -7254,7 +7567,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>329</v>
       </c>
@@ -7265,7 +7578,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>330</v>
       </c>
@@ -7276,7 +7589,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>331</v>
       </c>
@@ -7287,7 +7600,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>332</v>
       </c>
@@ -7298,7 +7611,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>333</v>
       </c>
@@ -7309,7 +7622,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>334</v>
       </c>
@@ -7320,7 +7633,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>335</v>
       </c>
@@ -7331,7 +7644,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>336</v>
       </c>
@@ -7342,7 +7655,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>337</v>
       </c>
@@ -7353,7 +7666,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>338</v>
       </c>
@@ -7364,7 +7677,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>339</v>
       </c>
@@ -7375,7 +7688,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>340</v>
       </c>
@@ -7386,7 +7699,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>341</v>
       </c>
@@ -7397,7 +7710,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>342</v>
       </c>
@@ -7408,7 +7721,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>343</v>
       </c>
@@ -7419,7 +7732,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>344</v>
       </c>
@@ -7430,7 +7743,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>345</v>
       </c>
@@ -7441,7 +7754,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>346</v>
       </c>
@@ -7452,7 +7765,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>347</v>
       </c>
@@ -7463,7 +7776,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>348</v>
       </c>
@@ -7474,7 +7787,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>349</v>
       </c>
@@ -7485,7 +7798,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>350</v>
       </c>
@@ -7496,7 +7809,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>351</v>
       </c>
@@ -7507,7 +7820,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>352</v>
       </c>
@@ -7518,7 +7831,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>353</v>
       </c>
@@ -7529,7 +7842,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>354</v>
       </c>
@@ -7540,7 +7853,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>355</v>
       </c>
@@ -7551,7 +7864,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>356</v>
       </c>
@@ -7562,7 +7875,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>357</v>
       </c>
@@ -7573,7 +7886,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>358</v>
       </c>
@@ -7584,7 +7897,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>359</v>
       </c>
@@ -7595,7 +7908,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>360</v>
       </c>
@@ -7606,7 +7919,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>361</v>
       </c>
@@ -7617,7 +7930,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>362</v>
       </c>
@@ -7628,7 +7941,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>363</v>
       </c>
@@ -7639,7 +7952,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>364</v>
       </c>
@@ -7650,7 +7963,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>365</v>
       </c>
@@ -7661,7 +7974,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>366</v>
       </c>
@@ -7672,7 +7985,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>367</v>
       </c>
@@ -7683,7 +7996,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>368</v>
       </c>
@@ -7694,7 +8007,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>369</v>
       </c>
@@ -7705,7 +8018,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>370</v>
       </c>
@@ -7716,7 +8029,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>371</v>
       </c>
@@ -7727,7 +8040,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>372</v>
       </c>
@@ -7738,7 +8051,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>373</v>
       </c>
@@ -7749,7 +8062,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>374</v>
       </c>
@@ -7760,7 +8073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>375</v>
       </c>
@@ -7771,7 +8084,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>376</v>
       </c>
@@ -7782,7 +8095,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>377</v>
       </c>
@@ -7793,7 +8106,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>378</v>
       </c>
@@ -7804,7 +8117,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>379</v>
       </c>
@@ -7815,7 +8128,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>380</v>
       </c>
@@ -7826,7 +8139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>381</v>
       </c>
@@ -7837,7 +8150,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>382</v>
       </c>
@@ -7848,7 +8161,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>383</v>
       </c>
@@ -7859,7 +8172,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>384</v>
       </c>
@@ -7870,7 +8183,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>385</v>
       </c>
@@ -7881,7 +8194,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>386</v>
       </c>
@@ -7892,7 +8205,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>387</v>
       </c>
@@ -7903,7 +8216,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>388</v>
       </c>
@@ -7914,7 +8227,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>389</v>
       </c>
@@ -7925,7 +8238,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>390</v>
       </c>
@@ -7936,7 +8249,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>391</v>
       </c>
@@ -7947,7 +8260,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -7958,7 +8271,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>393</v>
       </c>
@@ -7969,7 +8282,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -7980,7 +8293,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>395</v>
       </c>
@@ -7991,7 +8304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>396</v>
       </c>
@@ -8002,7 +8315,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>397</v>
       </c>
@@ -8013,7 +8326,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>398</v>
       </c>
@@ -8024,7 +8337,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>399</v>
       </c>
@@ -8035,7 +8348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>400</v>
       </c>
@@ -8046,7 +8359,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>401</v>
       </c>
@@ -8057,7 +8370,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>402</v>
       </c>
@@ -8068,7 +8381,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>403</v>
       </c>
@@ -8079,7 +8392,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>404</v>
       </c>
@@ -8090,7 +8403,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>405</v>
       </c>
@@ -8101,7 +8414,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>406</v>
       </c>
@@ -8112,7 +8425,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>407</v>
       </c>
@@ -8123,7 +8436,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>408</v>
       </c>
@@ -8134,7 +8447,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>409</v>
       </c>
@@ -8145,7 +8458,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>410</v>
       </c>
@@ -8156,7 +8469,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>411</v>
       </c>
@@ -8167,7 +8480,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>412</v>
       </c>
@@ -8178,7 +8491,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>413</v>
       </c>
@@ -8189,7 +8502,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>414</v>
       </c>
@@ -8200,7 +8513,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>415</v>
       </c>
@@ -8211,7 +8524,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>416</v>
       </c>
@@ -8222,7 +8535,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>417</v>
       </c>
@@ -8233,7 +8546,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>418</v>
       </c>
@@ -8244,7 +8557,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>419</v>
       </c>
@@ -8255,7 +8568,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>420</v>
       </c>
@@ -8266,7 +8579,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>421</v>
       </c>
@@ -8277,7 +8590,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>422</v>
       </c>
@@ -8288,7 +8601,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>423</v>
       </c>
@@ -8299,7 +8612,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>424</v>
       </c>
@@ -8310,7 +8623,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>425</v>
       </c>
@@ -8321,7 +8634,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>426</v>
       </c>
@@ -8332,7 +8645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>427</v>
       </c>
@@ -8343,7 +8656,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>428</v>
       </c>
@@ -8354,7 +8667,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>429</v>
       </c>
@@ -8365,7 +8678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>430</v>
       </c>
@@ -8376,7 +8689,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>431</v>
       </c>
@@ -8387,7 +8700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>432</v>
       </c>
@@ -8398,7 +8711,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>433</v>
       </c>
@@ -8409,7 +8722,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>434</v>
       </c>
@@ -8420,7 +8733,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>435</v>
       </c>
@@ -8431,7 +8744,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>436</v>
       </c>
@@ -8442,7 +8755,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>437</v>
       </c>
@@ -8453,7 +8766,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>438</v>
       </c>
@@ -8464,7 +8777,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>439</v>
       </c>
@@ -8475,7 +8788,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>440</v>
       </c>
@@ -8486,7 +8799,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>441</v>
       </c>
@@ -8497,7 +8810,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>442</v>
       </c>
@@ -8508,7 +8821,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>443</v>
       </c>
@@ -8519,7 +8832,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>444</v>
       </c>
@@ -8530,7 +8843,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>445</v>
       </c>
@@ -8541,7 +8854,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>446</v>
       </c>
@@ -8552,7 +8865,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>447</v>
       </c>
@@ -8563,7 +8876,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>448</v>
       </c>
@@ -8574,7 +8887,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>449</v>
       </c>
@@ -8585,7 +8898,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>450</v>
       </c>
@@ -8596,7 +8909,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>451</v>
       </c>
@@ -8607,7 +8920,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>452</v>
       </c>
@@ -8618,7 +8931,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>453</v>
       </c>
@@ -8629,7 +8942,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>454</v>
       </c>
@@ -8640,7 +8953,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>455</v>
       </c>
@@ -8651,7 +8964,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>456</v>
       </c>
@@ -8662,7 +8975,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>457</v>
       </c>
@@ -8673,7 +8986,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>458</v>
       </c>
@@ -8684,7 +8997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>459</v>
       </c>
@@ -8695,7 +9008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>460</v>
       </c>
@@ -8706,7 +9019,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>461</v>
       </c>
@@ -8717,7 +9030,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>462</v>
       </c>
@@ -8728,7 +9041,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>463</v>
       </c>
@@ -8739,7 +9052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>464</v>
       </c>
@@ -8750,7 +9063,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>465</v>
       </c>
@@ -8761,7 +9074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>466</v>
       </c>
@@ -8772,7 +9085,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>467</v>
       </c>
@@ -8783,7 +9096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>468</v>
       </c>
@@ -8794,7 +9107,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>469</v>
       </c>
@@ -8805,7 +9118,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>470</v>
       </c>
@@ -8816,7 +9129,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>471</v>
       </c>
@@ -8827,7 +9140,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>472</v>
       </c>
@@ -8838,7 +9151,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>473</v>
       </c>
@@ -8849,7 +9162,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>474</v>
       </c>
@@ -8860,7 +9173,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>475</v>
       </c>
@@ -8871,7 +9184,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>476</v>
       </c>
@@ -8882,7 +9195,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>477</v>
       </c>
@@ -8893,7 +9206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>478</v>
       </c>
@@ -8904,7 +9217,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>479</v>
       </c>
@@ -8915,7 +9228,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>480</v>
       </c>
@@ -8926,7 +9239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>481</v>
       </c>
@@ -8937,7 +9250,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>482</v>
       </c>
@@ -8948,7 +9261,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>483</v>
       </c>
@@ -8959,7 +9272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>484</v>
       </c>
@@ -8970,7 +9283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>485</v>
       </c>
@@ -8981,7 +9294,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>486</v>
       </c>
@@ -8992,7 +9305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>487</v>
       </c>
@@ -9003,7 +9316,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>488</v>
       </c>
@@ -9014,7 +9327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>489</v>
       </c>
@@ -9025,7 +9338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>490</v>
       </c>
@@ -9036,7 +9349,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>491</v>
       </c>
@@ -9047,7 +9360,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>492</v>
       </c>
@@ -9058,7 +9371,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>493</v>
       </c>
@@ -9069,7 +9382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>494</v>
       </c>
@@ -9080,7 +9393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>495</v>
       </c>
@@ -9091,7 +9404,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>496</v>
       </c>
@@ -9102,7 +9415,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>497</v>
       </c>
@@ -9113,7 +9426,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>498</v>
       </c>
@@ -9124,7 +9437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>499</v>
       </c>
@@ -9135,7 +9448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>500</v>
       </c>
@@ -9146,7 +9459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>501</v>
       </c>
@@ -9157,7 +9470,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>502</v>
       </c>
@@ -9168,7 +9481,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>503</v>
       </c>
@@ -9179,7 +9492,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>504</v>
       </c>
@@ -9190,7 +9503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>505</v>
       </c>
@@ -9201,7 +9514,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>506</v>
       </c>
@@ -9212,7 +9525,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>507</v>
       </c>
@@ -9223,7 +9536,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>508</v>
       </c>
@@ -9234,7 +9547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>509</v>
       </c>
@@ -9245,7 +9558,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>510</v>
       </c>
@@ -9256,7 +9569,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>511</v>
       </c>
@@ -9267,7 +9580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>512</v>
       </c>
@@ -9278,7 +9591,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>513</v>
       </c>
@@ -9289,7 +9602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>514</v>
       </c>
@@ -9300,7 +9613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>515</v>
       </c>
@@ -9311,7 +9624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>516</v>
       </c>
@@ -9322,7 +9635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>517</v>
       </c>
@@ -9333,7 +9646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>518</v>
       </c>
@@ -9344,7 +9657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>519</v>
       </c>
@@ -9355,7 +9668,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>520</v>
       </c>
@@ -9366,7 +9679,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>521</v>
       </c>
@@ -9377,7 +9690,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>522</v>
       </c>
@@ -9388,7 +9701,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>523</v>
       </c>
@@ -9399,7 +9712,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>524</v>
       </c>
@@ -9410,7 +9723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>525</v>
       </c>
@@ -9421,7 +9734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>526</v>
       </c>
@@ -9432,7 +9745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>527</v>
       </c>
@@ -9443,7 +9756,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>528</v>
       </c>
@@ -9454,7 +9767,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>529</v>
       </c>
@@ -9465,7 +9778,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>530</v>
       </c>
@@ -9476,7 +9789,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>531</v>
       </c>
@@ -9487,7 +9800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>532</v>
       </c>
@@ -9498,7 +9811,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>533</v>
       </c>
@@ -9509,7 +9822,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>534</v>
       </c>
@@ -9520,7 +9833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>535</v>
       </c>
@@ -9531,7 +9844,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>536</v>
       </c>
@@ -9542,7 +9855,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>537</v>
       </c>
@@ -9553,7 +9866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>538</v>
       </c>
@@ -9564,7 +9877,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>539</v>
       </c>
@@ -9575,7 +9888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>540</v>
       </c>
@@ -9586,7 +9899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>541</v>
       </c>
@@ -9597,7 +9910,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>542</v>
       </c>
@@ -9608,7 +9921,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>543</v>
       </c>
@@ -9619,7 +9932,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>544</v>
       </c>
@@ -9630,7 +9943,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>545</v>
       </c>
@@ -9641,7 +9954,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>546</v>
       </c>
@@ -9652,7 +9965,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>547</v>
       </c>
@@ -9663,7 +9976,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>548</v>
       </c>
@@ -9674,7 +9987,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>549</v>
       </c>
@@ -9685,7 +9998,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>550</v>
       </c>
@@ -9696,7 +10009,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>551</v>
       </c>
@@ -9707,7 +10020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>552</v>
       </c>
@@ -9718,7 +10031,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>553</v>
       </c>
@@ -9729,7 +10042,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>554</v>
       </c>
@@ -9740,7 +10053,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>555</v>
       </c>
@@ -9751,7 +10064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>556</v>
       </c>
@@ -9762,7 +10075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>557</v>
       </c>
@@ -9773,7 +10086,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>558</v>
       </c>
@@ -9784,7 +10097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>559</v>
       </c>
@@ -9795,7 +10108,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>560</v>
       </c>
@@ -9806,7 +10119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>561</v>
       </c>
@@ -9817,7 +10130,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>562</v>
       </c>
@@ -9828,7 +10141,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>563</v>
       </c>
@@ -9839,7 +10152,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>564</v>
       </c>
@@ -9850,7 +10163,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>565</v>
       </c>
@@ -9861,7 +10174,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>566</v>
       </c>
@@ -9872,7 +10185,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>567</v>
       </c>
@@ -9883,7 +10196,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>568</v>
       </c>
@@ -9894,7 +10207,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>569</v>
       </c>
@@ -9905,7 +10218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>570</v>
       </c>
@@ -9916,7 +10229,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>571</v>
       </c>
@@ -9927,7 +10240,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>572</v>
       </c>
@@ -9938,7 +10251,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>573</v>
       </c>
@@ -9949,7 +10262,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>574</v>
       </c>
@@ -9960,7 +10273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>575</v>
       </c>
@@ -9971,7 +10284,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>576</v>
       </c>
@@ -9982,7 +10295,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>577</v>
       </c>
@@ -9993,7 +10306,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>578</v>
       </c>
@@ -10004,7 +10317,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>579</v>
       </c>
@@ -10015,7 +10328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>580</v>
       </c>
@@ -10026,7 +10339,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>581</v>
       </c>
@@ -10037,7 +10350,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>582</v>
       </c>
@@ -10048,7 +10361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>583</v>
       </c>
@@ -10059,7 +10372,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>584</v>
       </c>
@@ -10070,7 +10383,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>585</v>
       </c>
@@ -10081,7 +10394,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>586</v>
       </c>
@@ -10092,7 +10405,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>587</v>
       </c>
@@ -10103,7 +10416,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>588</v>
       </c>
@@ -10114,7 +10427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>589</v>
       </c>
@@ -10125,7 +10438,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>590</v>
       </c>
@@ -10136,7 +10449,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>591</v>
       </c>
@@ -10147,7 +10460,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>592</v>
       </c>
@@ -10158,7 +10471,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>593</v>
       </c>
@@ -10169,7 +10482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>594</v>
       </c>
@@ -10180,7 +10493,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>595</v>
       </c>
@@ -10191,7 +10504,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>596</v>
       </c>
@@ -10202,7 +10515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>597</v>
       </c>
@@ -10213,7 +10526,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>598</v>
       </c>
@@ -10224,7 +10537,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>599</v>
       </c>
@@ -10235,7 +10548,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>600</v>
       </c>
@@ -10246,7 +10559,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>601</v>
       </c>
@@ -10257,7 +10570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>602</v>
       </c>
@@ -10268,7 +10581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>603</v>
       </c>
@@ -10279,7 +10592,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>604</v>
       </c>
@@ -10290,7 +10603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>605</v>
       </c>
@@ -10301,7 +10614,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>606</v>
       </c>
@@ -10312,7 +10625,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>607</v>
       </c>
@@ -10323,7 +10636,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>608</v>
       </c>
@@ -10334,7 +10647,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>609</v>
       </c>
@@ -10345,7 +10658,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>610</v>
       </c>
@@ -10356,7 +10669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>611</v>
       </c>
@@ -10367,7 +10680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>612</v>
       </c>
@@ -10378,7 +10691,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>613</v>
       </c>
@@ -10389,7 +10702,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>614</v>
       </c>
@@ -10400,7 +10713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>615</v>
       </c>
@@ -10411,7 +10724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>616</v>
       </c>
@@ -10422,7 +10735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>617</v>
       </c>
@@ -10433,7 +10746,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>618</v>
       </c>
@@ -10444,7 +10757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>619</v>
       </c>
@@ -10455,7 +10768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>620</v>
       </c>
@@ -10466,7 +10779,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>621</v>
       </c>
@@ -10477,7 +10790,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>622</v>
       </c>
@@ -10488,7 +10801,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>623</v>
       </c>
@@ -10499,7 +10812,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>624</v>
       </c>
@@ -10510,7 +10823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>625</v>
       </c>
@@ -10521,7 +10834,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>626</v>
       </c>
@@ -10532,7 +10845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>627</v>
       </c>
@@ -10543,7 +10856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>628</v>
       </c>
@@ -10554,7 +10867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>629</v>
       </c>
@@ -10565,7 +10878,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>630</v>
       </c>
@@ -10576,7 +10889,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>631</v>
       </c>
@@ -10587,7 +10900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>632</v>
       </c>
@@ -10598,7 +10911,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>633</v>
       </c>
@@ -10609,7 +10922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>634</v>
       </c>
@@ -10620,7 +10933,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>635</v>
       </c>
@@ -10631,7 +10944,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>636</v>
       </c>
@@ -10642,7 +10955,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>637</v>
       </c>
@@ -10653,7 +10966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>638</v>
       </c>
@@ -10664,7 +10977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>639</v>
       </c>
@@ -10675,7 +10988,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>640</v>
       </c>
@@ -10686,7 +10999,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>641</v>
       </c>
@@ -10697,7 +11010,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>642</v>
       </c>
@@ -10708,7 +11021,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>643</v>
       </c>
@@ -10719,7 +11032,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>644</v>
       </c>
@@ -10730,7 +11043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>645</v>
       </c>
@@ -10741,7 +11054,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>646</v>
       </c>
@@ -10752,7 +11065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>647</v>
       </c>
@@ -10763,7 +11076,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>648</v>
       </c>
@@ -10774,7 +11087,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>649</v>
       </c>
@@ -10785,7 +11098,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>650</v>
       </c>
@@ -10796,7 +11109,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>651</v>
       </c>
@@ -10807,7 +11120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>652</v>
       </c>
@@ -10818,7 +11131,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>653</v>
       </c>
@@ -10829,7 +11142,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>654</v>
       </c>
@@ -10840,7 +11153,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>655</v>
       </c>
@@ -10851,7 +11164,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>656</v>
       </c>
@@ -10862,7 +11175,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>657</v>
       </c>
@@ -10873,7 +11186,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>658</v>
       </c>
@@ -10884,7 +11197,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>659</v>
       </c>
@@ -10895,7 +11208,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>660</v>
       </c>
@@ -10906,7 +11219,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>661</v>
       </c>
@@ -10917,7 +11230,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>662</v>
       </c>
@@ -10928,7 +11241,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>663</v>
       </c>
@@ -10939,7 +11252,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>664</v>
       </c>
@@ -10950,7 +11263,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>665</v>
       </c>
@@ -10961,7 +11274,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>666</v>
       </c>
@@ -10972,7 +11285,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>667</v>
       </c>
@@ -10983,7 +11296,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>668</v>
       </c>
@@ -10994,7 +11307,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>669</v>
       </c>
@@ -11005,7 +11318,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>670</v>
       </c>
@@ -11016,7 +11329,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>671</v>
       </c>
@@ -11027,7 +11340,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>672</v>
       </c>
@@ -11038,7 +11351,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>673</v>
       </c>
@@ -11049,7 +11362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>674</v>
       </c>
@@ -11060,7 +11373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>675</v>
       </c>
@@ -11071,7 +11384,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>676</v>
       </c>
@@ -11082,7 +11395,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>677</v>
       </c>
@@ -11093,7 +11406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>678</v>
       </c>
@@ -11104,7 +11417,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>679</v>
       </c>
@@ -11115,7 +11428,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>680</v>
       </c>
@@ -11126,7 +11439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>681</v>
       </c>
@@ -11137,7 +11450,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>682</v>
       </c>
@@ -11148,7 +11461,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>683</v>
       </c>
@@ -11159,7 +11472,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>684</v>
       </c>
@@ -11170,7 +11483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>685</v>
       </c>
@@ -11181,7 +11494,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>686</v>
       </c>
@@ -11192,7 +11505,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>687</v>
       </c>
@@ -11203,7 +11516,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>688</v>
       </c>
@@ -11214,7 +11527,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>689</v>
       </c>
@@ -11225,7 +11538,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>690</v>
       </c>
@@ -11236,7 +11549,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>691</v>
       </c>
@@ -11247,7 +11560,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>692</v>
       </c>
@@ -11258,7 +11571,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>693</v>
       </c>
@@ -11269,7 +11582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>694</v>
       </c>
@@ -11280,7 +11593,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>695</v>
       </c>
@@ -11291,7 +11604,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>696</v>
       </c>
@@ -11302,7 +11615,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>697</v>
       </c>
@@ -11313,7 +11626,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>698</v>
       </c>
@@ -11324,7 +11637,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>699</v>
       </c>
@@ -11335,7 +11648,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>700</v>
       </c>
@@ -11346,7 +11659,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>701</v>
       </c>
@@ -11357,7 +11670,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>702</v>
       </c>
@@ -11368,7 +11681,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>703</v>
       </c>
@@ -11379,7 +11692,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>704</v>
       </c>
@@ -11390,7 +11703,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>705</v>
       </c>
@@ -11401,7 +11714,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>706</v>
       </c>
@@ -11412,7 +11725,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>707</v>
       </c>
@@ -11423,7 +11736,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>708</v>
       </c>
@@ -11434,7 +11747,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>709</v>
       </c>
@@ -11445,7 +11758,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>710</v>
       </c>
@@ -11456,7 +11769,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>711</v>
       </c>
@@ -11467,7 +11780,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>712</v>
       </c>
@@ -11478,7 +11791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>713</v>
       </c>
@@ -11489,7 +11802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>714</v>
       </c>
@@ -11500,7 +11813,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>715</v>
       </c>
@@ -11511,7 +11824,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>716</v>
       </c>
@@ -11522,7 +11835,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>717</v>
       </c>
@@ -11533,7 +11846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>718</v>
       </c>
@@ -11544,7 +11857,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>719</v>
       </c>
@@ -11555,7 +11868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>720</v>
       </c>
@@ -11566,7 +11879,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>721</v>
       </c>
@@ -11577,7 +11890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>722</v>
       </c>
@@ -11588,7 +11901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>723</v>
       </c>
@@ -11599,7 +11912,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>724</v>
       </c>
@@ -11610,7 +11923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>725</v>
       </c>
@@ -11621,7 +11934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>726</v>
       </c>
@@ -11632,7 +11945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>727</v>
       </c>
@@ -11643,7 +11956,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>728</v>
       </c>
@@ -11654,7 +11967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>729</v>
       </c>
@@ -11665,7 +11978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>730</v>
       </c>
@@ -11676,7 +11989,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>731</v>
       </c>
@@ -11687,7 +12000,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>732</v>
       </c>
@@ -11698,7 +12011,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>733</v>
       </c>
@@ -11709,7 +12022,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>734</v>
       </c>
@@ -11720,7 +12033,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>735</v>
       </c>
@@ -11731,7 +12044,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>736</v>
       </c>
@@ -11742,7 +12055,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>737</v>
       </c>
@@ -11753,7 +12066,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>738</v>
       </c>
@@ -11764,7 +12077,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>739</v>
       </c>
@@ -11775,7 +12088,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>740</v>
       </c>
@@ -11786,7 +12099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>741</v>
       </c>
@@ -11797,7 +12110,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>742</v>
       </c>
@@ -11808,7 +12121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>743</v>
       </c>
@@ -11819,7 +12132,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>744</v>
       </c>
@@ -11830,7 +12143,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>745</v>
       </c>
@@ -11841,7 +12154,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>746</v>
       </c>
@@ -11852,7 +12165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>747</v>
       </c>
@@ -11863,7 +12176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>748</v>
       </c>
@@ -11874,7 +12187,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>749</v>
       </c>
@@ -11885,7 +12198,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>750</v>
       </c>
@@ -11902,19 +12215,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11925,7 +12238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -11936,7 +12249,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11947,7 +12260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11958,7 +12271,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11969,7 +12282,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -11980,7 +12293,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -11991,7 +12304,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -12002,7 +12315,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -12013,7 +12326,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -12024,7 +12337,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -12041,16 +12354,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12061,7 +12374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -12072,7 +12385,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -12083,7 +12396,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -12094,7 +12407,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -12105,7 +12418,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>751</v>
       </c>
@@ -12116,7 +12429,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -12127,7 +12440,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -12138,7 +12451,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -12149,7 +12462,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -12160,7 +12473,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>751</v>
       </c>
@@ -12177,19 +12490,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12197,7 +12510,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>830</v>
       </c>
@@ -12205,7 +12518,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>831</v>
       </c>
@@ -12219,65 +12532,101 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>767</v>
       </c>
       <c r="B2" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="5">
+        <v>24.000248800000001</v>
+      </c>
+      <c r="D2" s="5">
+        <v>53.999482899999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>771</v>
       </c>
       <c r="B3" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="5">
+        <v>36.638392000000003</v>
+      </c>
+      <c r="D3" s="5">
+        <v>127.69611879999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>769</v>
       </c>
       <c r="B4" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="5">
+        <v>36.5748441</v>
+      </c>
+      <c r="D4" s="5">
+        <v>139.23941790000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>765</v>
       </c>
       <c r="B5" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
+        <v>-24.776108600000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>134.755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>753</v>
       </c>
       <c r="B6" s="1">
         <v>0.81</v>
+      </c>
+      <c r="C6" s="5">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>84.091713900000002</v>
       </c>
     </row>
   </sheetData>
@@ -12286,21 +12635,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>827</v>
       </c>
@@ -12311,7 +12660,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44687</v>
       </c>
@@ -12322,7 +12671,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44688</v>
       </c>
@@ -12333,7 +12682,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44689</v>
       </c>
@@ -12344,7 +12693,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44690</v>
       </c>
@@ -12355,7 +12704,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44691</v>
       </c>
@@ -12366,7 +12715,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44692</v>
       </c>
@@ -12377,7 +12726,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44693</v>
       </c>
@@ -12388,7 +12737,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44694</v>
       </c>
@@ -12399,7 +12748,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44695</v>
       </c>
@@ -12410,7 +12759,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44696</v>
       </c>
@@ -12421,7 +12770,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44697</v>
       </c>
@@ -12432,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44698</v>
       </c>
@@ -12443,7 +12792,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44699</v>
       </c>
@@ -12454,7 +12803,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44700</v>
       </c>
@@ -12465,7 +12814,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44701</v>
       </c>
@@ -12476,7 +12825,7 @@
         <v>-9674</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44702</v>
       </c>
@@ -12487,7 +12836,7 @@
         <v>9670</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44703</v>
       </c>
@@ -12498,7 +12847,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44704</v>
       </c>
@@ -12509,7 +12858,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44705</v>
       </c>
@@ -12520,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44706</v>
       </c>
@@ -12531,7 +12880,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44707</v>
       </c>
@@ -12542,7 +12891,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44708</v>
       </c>
@@ -12553,7 +12902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44709</v>
       </c>
@@ -12564,7 +12913,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44710</v>
       </c>
@@ -12575,7 +12924,7 @@
         <v>-9657</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44711</v>
       </c>
@@ -12586,7 +12935,7 @@
         <v>9660</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44712</v>
       </c>
@@ -12597,7 +12946,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44713</v>
       </c>
@@ -12608,7 +12957,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44714</v>
       </c>
@@ -12619,7 +12968,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44715</v>
       </c>
@@ -12630,7 +12979,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44716</v>
       </c>
@@ -12641,7 +12990,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44717</v>
       </c>
@@ -12652,7 +13001,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44718</v>
       </c>
@@ -12663,7 +13012,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44719</v>
       </c>
@@ -12674,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44720</v>
       </c>
@@ -12685,7 +13034,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44721</v>
       </c>
@@ -12696,7 +13045,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44722</v>
       </c>
@@ -12707,7 +13056,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44723</v>
       </c>
@@ -12718,7 +13067,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44724</v>
       </c>
@@ -12729,7 +13078,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44725</v>
       </c>
@@ -12740,7 +13089,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44726</v>
       </c>
@@ -12751,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44727</v>
       </c>
@@ -12762,7 +13111,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44728</v>
       </c>
@@ -12773,7 +13122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44729</v>
       </c>
@@ -12784,7 +13133,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44730</v>
       </c>
@@ -12795,7 +13144,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44731</v>
       </c>
@@ -12806,7 +13155,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44732</v>
       </c>
@@ -12817,7 +13166,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44733</v>
       </c>
@@ -12828,7 +13177,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44734</v>
       </c>
@@ -12839,7 +13188,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44735</v>
       </c>
@@ -12850,7 +13199,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44736</v>
       </c>
@@ -12861,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44737</v>
       </c>
@@ -12872,7 +13221,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44738</v>
       </c>
@@ -12883,7 +13232,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44739</v>
       </c>
@@ -12894,7 +13243,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44740</v>
       </c>
@@ -12905,7 +13254,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44741</v>
       </c>
@@ -12916,7 +13265,7 @@
         <v>-9565</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44742</v>
       </c>
@@ -12927,7 +13276,7 @@
         <v>9555</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44743</v>
       </c>
@@ -12938,7 +13287,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44744</v>
       </c>
@@ -12949,7 +13298,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44745</v>
       </c>
@@ -12960,7 +13309,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44746</v>
       </c>
@@ -12977,193 +13326,325 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>754</v>
       </c>
       <c r="B2">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <v>27.708317000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>85.320581700000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>755</v>
       </c>
       <c r="B3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="3">
+        <v>28.209537999999998</v>
+      </c>
+      <c r="D3" s="3">
+        <v>83.991401999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>756</v>
       </c>
       <c r="B4">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>27.682773099999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>83.443862049289692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>757</v>
       </c>
       <c r="B5">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <v>27.6879749</v>
+      </c>
+      <c r="D5" s="3">
+        <v>84.436082615904908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>758</v>
       </c>
       <c r="B6">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="3">
+        <v>26.583735399999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>87.885701033147313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>759</v>
       </c>
       <c r="B7">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>26.4623007</v>
+      </c>
+      <c r="D7" s="3">
+        <v>87.281616999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>760</v>
       </c>
       <c r="B8">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>27.671811099999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>85.426428400000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>761</v>
       </c>
       <c r="B9">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>26.7953984</v>
+      </c>
+      <c r="D9" s="3">
+        <v>87.277000759285045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>762</v>
       </c>
       <c r="B10">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>26.673931450000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>87.258387952946748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>763</v>
       </c>
       <c r="B11">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>27.418715599999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>85.010093354593167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>753</v>
       </c>
       <c r="B12">
         <v>91.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>28.108392899999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>84.091713900000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>763</v>
       </c>
       <c r="B13">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>27.418715599999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>85.010093354593167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>764</v>
       </c>
       <c r="B14">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>39.783730400000003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-100.445882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>765</v>
       </c>
       <c r="B15">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>-24.776108600000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>134.755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>766</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>22.351114800000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>78.667742799999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>767</v>
       </c>
       <c r="B17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>24.000248800000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>53.999482899999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>768</v>
       </c>
       <c r="B18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>54.702354499999998</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-3.2765753000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>769</v>
       </c>
       <c r="B19">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>36.5748441</v>
+      </c>
+      <c r="D19" s="3">
+        <v>139.23941790000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>770</v>
       </c>
       <c r="B20">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>25.624261799999999</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42.352832800000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>771</v>
       </c>
       <c r="B21">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>36.638392000000003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>127.69611879999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>772</v>
       </c>
       <c r="B22">
         <v>0.2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12.750348600000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>122.7312101</v>
       </c>
     </row>
   </sheetData>
